--- a/BackTest/2019-10-19 BackTest BCH.xlsx
+++ b/BackTest/2019-10-19 BackTest BCH.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2800</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>53.84615384615385</v>
+      </c>
       <c r="L12" t="n">
         <v>252020</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2900</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>68</v>
+      </c>
       <c r="L13" t="n">
         <v>252170</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2900</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>68</v>
+      </c>
       <c r="L14" t="n">
         <v>252340</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>3000</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>76</v>
+      </c>
       <c r="L15" t="n">
         <v>252520</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>3000</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>72.72727272727273</v>
+      </c>
       <c r="L16" t="n">
         <v>252710</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>3000</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>72.72727272727273</v>
+      </c>
       <c r="L17" t="n">
         <v>252870</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>3000</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>72.72727272727273</v>
+      </c>
       <c r="L18" t="n">
         <v>253030</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>3100</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>80.95238095238095</v>
+      </c>
       <c r="L19" t="n">
         <v>253180</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>3200</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>90.47619047619048</v>
+      </c>
       <c r="L20" t="n">
         <v>253360</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>3200</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21" t="n">
         <v>253550</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>3300</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>50</v>
+      </c>
       <c r="L22" t="n">
         <v>253580</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3300</v>
       </c>
       <c r="K23" t="n">
-        <v>54.83870967741935</v>
+        <v>50</v>
       </c>
       <c r="L23" t="n">
         <v>253600</v>
@@ -1466,7 +1488,7 @@
         <v>3500</v>
       </c>
       <c r="K24" t="n">
-        <v>54.83870967741935</v>
+        <v>-20</v>
       </c>
       <c r="L24" t="n">
         <v>253600</v>
@@ -1515,7 +1537,7 @@
         <v>3500</v>
       </c>
       <c r="K25" t="n">
-        <v>54.83870967741935</v>
+        <v>-20</v>
       </c>
       <c r="L25" t="n">
         <v>253590</v>
@@ -1564,7 +1586,7 @@
         <v>3600</v>
       </c>
       <c r="K26" t="n">
-        <v>54.83870967741935</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>253570</v>
@@ -1613,7 +1635,7 @@
         <v>4100</v>
       </c>
       <c r="K27" t="n">
-        <v>57.57575757575758</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L27" t="n">
         <v>253600</v>
@@ -1662,7 +1684,7 @@
         <v>4500</v>
       </c>
       <c r="K28" t="n">
-        <v>40.54054054054054</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>253590</v>
@@ -1711,7 +1733,7 @@
         <v>4700</v>
       </c>
       <c r="K29" t="n">
-        <v>43.58974358974359</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L29" t="n">
         <v>253610</v>
@@ -1760,7 +1782,7 @@
         <v>4800</v>
       </c>
       <c r="K30" t="n">
-        <v>47.36842105263158</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>253610</v>
@@ -1809,7 +1831,7 @@
         <v>5400</v>
       </c>
       <c r="K31" t="n">
-        <v>58.13953488372093</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L31" t="n">
         <v>253670</v>
@@ -1860,7 +1882,7 @@
         <v>5700</v>
       </c>
       <c r="K32" t="n">
-        <v>17.24137931034483</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L32" t="n">
         <v>253690</v>
@@ -1911,7 +1933,7 @@
         <v>6200</v>
       </c>
       <c r="K33" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>253760</v>
@@ -1962,7 +1984,7 @@
         <v>6200</v>
       </c>
       <c r="K34" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>253850</v>
@@ -2013,7 +2035,7 @@
         <v>6600</v>
       </c>
       <c r="K35" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
         <v>253900</v>
@@ -2064,7 +2086,7 @@
         <v>6700</v>
       </c>
       <c r="K36" t="n">
-        <v>13.51351351351351</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L36" t="n">
         <v>253970</v>
@@ -2115,7 +2137,7 @@
         <v>6700</v>
       </c>
       <c r="K37" t="n">
-        <v>13.51351351351351</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L37" t="n">
         <v>253990</v>
@@ -2166,7 +2188,7 @@
         <v>6800</v>
       </c>
       <c r="K38" t="n">
-        <v>10.52631578947368</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L38" t="n">
         <v>254040</v>
@@ -2217,7 +2239,7 @@
         <v>6900</v>
       </c>
       <c r="K39" t="n">
-        <v>10.52631578947368</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>254060</v>
@@ -2268,7 +2290,7 @@
         <v>6900</v>
       </c>
       <c r="K40" t="n">
-        <v>8.108108108108109</v>
+        <v>-20</v>
       </c>
       <c r="L40" t="n">
         <v>254090</v>
@@ -2319,7 +2341,7 @@
         <v>7000</v>
       </c>
       <c r="K41" t="n">
-        <v>10.52631578947368</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L41" t="n">
         <v>254070</v>
@@ -2370,7 +2392,7 @@
         <v>7500</v>
       </c>
       <c r="K42" t="n">
-        <v>-4.761904761904762</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L42" t="n">
         <v>254030</v>
@@ -2421,7 +2443,7 @@
         <v>7600</v>
       </c>
       <c r="K43" t="n">
-        <v>-6.976744186046512</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L43" t="n">
         <v>253930</v>
@@ -2472,7 +2494,7 @@
         <v>7900</v>
       </c>
       <c r="K44" t="n">
-        <v>4.545454545454546</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L44" t="n">
         <v>253860</v>
@@ -2523,7 +2545,7 @@
         <v>8100</v>
       </c>
       <c r="K45" t="n">
-        <v>8.695652173913043</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>253850</v>
@@ -2574,7 +2596,7 @@
         <v>8100</v>
       </c>
       <c r="K46" t="n">
-        <v>11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L46" t="n">
         <v>253830</v>
@@ -2625,7 +2647,7 @@
         <v>8700</v>
       </c>
       <c r="K47" t="n">
-        <v>13.04347826086956</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L47" t="n">
         <v>253870</v>
@@ -2676,7 +2698,7 @@
         <v>9500</v>
       </c>
       <c r="K48" t="n">
-        <v>4</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L48" t="n">
         <v>253840</v>
@@ -2727,7 +2749,7 @@
         <v>9600</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.040816326530612</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L49" t="n">
         <v>253810</v>
@@ -2778,7 +2800,7 @@
         <v>9700</v>
       </c>
       <c r="K50" t="n">
-        <v>2.040816326530612</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L50" t="n">
         <v>253790</v>
@@ -2829,7 +2851,7 @@
         <v>9800</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.090909090909092</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L51" t="n">
         <v>253770</v>
@@ -2880,7 +2902,7 @@
         <v>10000</v>
       </c>
       <c r="K52" t="n">
-        <v>2.325581395348837</v>
+        <v>25</v>
       </c>
       <c r="L52" t="n">
         <v>253820</v>
@@ -2931,7 +2953,7 @@
         <v>10100</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.82051282051282</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L53" t="n">
         <v>253870</v>
@@ -2982,7 +3004,7 @@
         <v>10200</v>
       </c>
       <c r="K54" t="n">
-        <v>-10</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L54" t="n">
         <v>253900</v>
@@ -3033,7 +3055,7 @@
         <v>10300</v>
       </c>
       <c r="K55" t="n">
-        <v>-2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>253900</v>
@@ -3084,7 +3106,7 @@
         <v>10400</v>
       </c>
       <c r="K56" t="n">
-        <v>-8.108108108108109</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L56" t="n">
         <v>253890</v>
@@ -3135,7 +3157,7 @@
         <v>10600</v>
       </c>
       <c r="K57" t="n">
-        <v>-2.564102564102564</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L57" t="n">
         <v>253840</v>
@@ -3186,7 +3208,7 @@
         <v>10700</v>
       </c>
       <c r="K58" t="n">
-        <v>-2.564102564102564</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L58" t="n">
         <v>253860</v>
@@ -3237,7 +3259,7 @@
         <v>11000</v>
       </c>
       <c r="K59" t="n">
-        <v>7.317073170731707</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L59" t="n">
         <v>253920</v>
@@ -3288,7 +3310,7 @@
         <v>11300</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L60" t="n">
         <v>253940</v>
@@ -3390,7 +3412,7 @@
         <v>11700</v>
       </c>
       <c r="K62" t="n">
-        <v>19.04761904761905</v>
+        <v>25</v>
       </c>
       <c r="L62" t="n">
         <v>253990</v>
@@ -3441,7 +3463,7 @@
         <v>12000</v>
       </c>
       <c r="K63" t="n">
-        <v>13.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>254000</v>
@@ -3492,7 +3514,7 @@
         <v>12200</v>
       </c>
       <c r="K64" t="n">
-        <v>2.325581395348837</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L64" t="n">
         <v>253980</v>
@@ -3543,7 +3565,7 @@
         <v>12400</v>
       </c>
       <c r="K65" t="n">
-        <v>-6.976744186046512</v>
+        <v>-10</v>
       </c>
       <c r="L65" t="n">
         <v>253950</v>
@@ -3594,7 +3616,7 @@
         <v>12700</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L66" t="n">
         <v>253960</v>
@@ -3645,7 +3667,7 @@
         <v>13100</v>
       </c>
       <c r="K67" t="n">
-        <v>-22.72727272727273</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>253910</v>
@@ -3696,7 +3718,7 @@
         <v>13200</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.702702702702703</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L68" t="n">
         <v>253880</v>
@@ -3747,7 +3769,7 @@
         <v>13500</v>
       </c>
       <c r="K69" t="n">
-        <v>-7.692307692307693</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L69" t="n">
         <v>253790</v>
@@ -3798,7 +3820,7 @@
         <v>13600</v>
       </c>
       <c r="K70" t="n">
-        <v>-12.82051282051282</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L70" t="n">
         <v>253720</v>
@@ -3849,7 +3871,7 @@
         <v>14300</v>
       </c>
       <c r="K71" t="n">
-        <v>-28.88888888888889</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L71" t="n">
         <v>253570</v>
@@ -3900,7 +3922,7 @@
         <v>15800</v>
       </c>
       <c r="K72" t="n">
-        <v>-51.72413793103448</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L72" t="n">
         <v>253240</v>
@@ -3951,7 +3973,7 @@
         <v>16200</v>
       </c>
       <c r="K73" t="n">
-        <v>-40.98360655737705</v>
+        <v>-60</v>
       </c>
       <c r="L73" t="n">
         <v>252980</v>
@@ -4002,7 +4024,7 @@
         <v>17300</v>
       </c>
       <c r="K74" t="n">
-        <v>-52.11267605633802</v>
+        <v>-67.3469387755102</v>
       </c>
       <c r="L74" t="n">
         <v>252630</v>
@@ -4053,7 +4075,7 @@
         <v>17800</v>
       </c>
       <c r="K75" t="n">
-        <v>-41.33333333333334</v>
+        <v>-60.78431372549019</v>
       </c>
       <c r="L75" t="n">
         <v>252350</v>
@@ -4104,7 +4126,7 @@
         <v>18400</v>
       </c>
       <c r="K76" t="n">
-        <v>-45</v>
+        <v>-62.26415094339622</v>
       </c>
       <c r="L76" t="n">
         <v>251980</v>
@@ -4155,7 +4177,7 @@
         <v>18400</v>
       </c>
       <c r="K77" t="n">
-        <v>-48.71794871794872</v>
+        <v>-65.38461538461539</v>
       </c>
       <c r="L77" t="n">
         <v>251650</v>
@@ -4206,7 +4228,7 @@
         <v>18800</v>
       </c>
       <c r="K78" t="n">
-        <v>-40.74074074074074</v>
+        <v>-50.9433962264151</v>
       </c>
       <c r="L78" t="n">
         <v>251350</v>
@@ -4257,7 +4279,7 @@
         <v>19000</v>
       </c>
       <c r="K79" t="n">
-        <v>-47.5</v>
+        <v>-51.85185185185185</v>
       </c>
       <c r="L79" t="n">
         <v>251060</v>
@@ -4308,7 +4330,7 @@
         <v>19900</v>
       </c>
       <c r="K80" t="n">
-        <v>-30.23255813953488</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L80" t="n">
         <v>250870</v>
@@ -4359,7 +4381,7 @@
         <v>20100</v>
       </c>
       <c r="K81" t="n">
-        <v>-33.33333333333333</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L81" t="n">
         <v>250730</v>
@@ -4410,7 +4432,7 @@
         <v>20200</v>
       </c>
       <c r="K82" t="n">
-        <v>-36.47058823529412</v>
+        <v>-5</v>
       </c>
       <c r="L82" t="n">
         <v>250750</v>
@@ -4461,7 +4483,7 @@
         <v>20700</v>
       </c>
       <c r="K83" t="n">
-        <v>-26.4367816091954</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L83" t="n">
         <v>250780</v>
@@ -4512,7 +4534,7 @@
         <v>20800</v>
       </c>
       <c r="K84" t="n">
-        <v>-23.25581395348837</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>250930</v>
@@ -4563,7 +4585,7 @@
         <v>20800</v>
       </c>
       <c r="K85" t="n">
-        <v>-21.42857142857143</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>251030</v>
@@ -4614,7 +4636,7 @@
         <v>21100</v>
       </c>
       <c r="K86" t="n">
-        <v>-21.42857142857143</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L86" t="n">
         <v>251220</v>
@@ -4665,7 +4687,7 @@
         <v>21400</v>
       </c>
       <c r="K87" t="n">
-        <v>-20.48192771084337</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L87" t="n">
         <v>251380</v>
@@ -4716,7 +4738,7 @@
         <v>21400</v>
       </c>
       <c r="K88" t="n">
-        <v>-21.95121951219512</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L88" t="n">
         <v>251500</v>
@@ -4767,7 +4789,7 @@
         <v>21700</v>
       </c>
       <c r="K89" t="n">
-        <v>-14.63414634146341</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L89" t="n">
         <v>251670</v>
@@ -4818,7 +4840,7 @@
         <v>21900</v>
       </c>
       <c r="K90" t="n">
-        <v>-15.66265060240964</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L90" t="n">
         <v>251730</v>
@@ -4869,7 +4891,7 @@
         <v>21900</v>
       </c>
       <c r="K91" t="n">
-        <v>-7.894736842105263</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L91" t="n">
         <v>251810</v>
@@ -4920,7 +4942,7 @@
         <v>22800</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>251790</v>
@@ -4971,7 +4993,7 @@
         <v>22800</v>
       </c>
       <c r="K93" t="n">
-        <v>-6.060606060606061</v>
+        <v>-40</v>
       </c>
       <c r="L93" t="n">
         <v>251720</v>
@@ -5022,7 +5044,7 @@
         <v>23300</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>-12</v>
       </c>
       <c r="L94" t="n">
         <v>251690</v>
@@ -5073,7 +5095,7 @@
         <v>23600</v>
       </c>
       <c r="K95" t="n">
-        <v>6.896551724137931</v>
+        <v>-36</v>
       </c>
       <c r="L95" t="n">
         <v>251630</v>
@@ -5124,7 +5146,7 @@
         <v>23700</v>
       </c>
       <c r="K96" t="n">
-        <v>20.75471698113208</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L96" t="n">
         <v>251550</v>
@@ -5175,7 +5197,7 @@
         <v>23700</v>
       </c>
       <c r="K97" t="n">
-        <v>20.75471698113208</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L97" t="n">
         <v>251500</v>
@@ -5226,7 +5248,7 @@
         <v>23700</v>
       </c>
       <c r="K98" t="n">
-        <v>14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L98" t="n">
         <v>251450</v>
@@ -5277,7 +5299,7 @@
         <v>24300</v>
       </c>
       <c r="K99" t="n">
-        <v>28.30188679245283</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>251430</v>
@@ -5328,7 +5350,7 @@
         <v>24500</v>
       </c>
       <c r="K100" t="n">
-        <v>17.39130434782609</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L100" t="n">
         <v>251450</v>
@@ -5379,7 +5401,7 @@
         <v>24900</v>
       </c>
       <c r="K101" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>251430</v>
@@ -5430,7 +5452,7 @@
         <v>24900</v>
       </c>
       <c r="K102" t="n">
-        <v>10.63829787234043</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>251500</v>
@@ -5481,7 +5503,7 @@
         <v>25000</v>
       </c>
       <c r="K103" t="n">
-        <v>-2.325581395348837</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L103" t="n">
         <v>251560</v>
@@ -5532,7 +5554,7 @@
         <v>25300</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.11111111111111</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L104" t="n">
         <v>251540</v>
@@ -5583,7 +5605,7 @@
         <v>25600</v>
       </c>
       <c r="K105" t="n">
-        <v>-4.166666666666666</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L105" t="n">
         <v>251580</v>
@@ -5634,7 +5656,7 @@
         <v>25600</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.11111111111111</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L106" t="n">
         <v>251610</v>
@@ -5685,7 +5707,7 @@
         <v>25800</v>
       </c>
       <c r="K107" t="n">
-        <v>-9.090909090909092</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L107" t="n">
         <v>251620</v>
@@ -5736,7 +5758,7 @@
         <v>25900</v>
       </c>
       <c r="K108" t="n">
-        <v>-11.11111111111111</v>
+        <v>-37.5</v>
       </c>
       <c r="L108" t="n">
         <v>251620</v>
@@ -5787,7 +5809,7 @@
         <v>26000</v>
       </c>
       <c r="K109" t="n">
-        <v>-20.93023255813954</v>
+        <v>-60</v>
       </c>
       <c r="L109" t="n">
         <v>251550</v>
@@ -5838,7 +5860,7 @@
         <v>26100</v>
       </c>
       <c r="K110" t="n">
-        <v>-19.04761904761905</v>
+        <v>-50</v>
       </c>
       <c r="L110" t="n">
         <v>251450</v>
@@ -5889,7 +5911,7 @@
         <v>26100</v>
       </c>
       <c r="K111" t="n">
-        <v>-19.04761904761905</v>
+        <v>-50</v>
       </c>
       <c r="L111" t="n">
         <v>251390</v>
@@ -5940,7 +5962,7 @@
         <v>26200</v>
       </c>
       <c r="K112" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>251340</v>
@@ -5991,7 +6013,7 @@
         <v>26300</v>
       </c>
       <c r="K113" t="n">
-        <v>2.857142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L113" t="n">
         <v>251290</v>
@@ -6042,7 +6064,7 @@
         <v>26500</v>
       </c>
       <c r="K114" t="n">
-        <v>-6.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>251290</v>
@@ -6093,7 +6115,7 @@
         <v>26800</v>
       </c>
       <c r="K115" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>251290</v>
@@ -6144,7 +6166,7 @@
         <v>26900</v>
       </c>
       <c r="K116" t="n">
-        <v>6.25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L116" t="n">
         <v>251280</v>
@@ -6195,7 +6217,7 @@
         <v>27200</v>
       </c>
       <c r="K117" t="n">
-        <v>14.28571428571428</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L117" t="n">
         <v>251320</v>
@@ -6246,7 +6268,7 @@
         <v>27400</v>
       </c>
       <c r="K118" t="n">
-        <v>8.108108108108109</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L118" t="n">
         <v>251350</v>
@@ -6297,7 +6319,7 @@
         <v>27700</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L119" t="n">
         <v>251420</v>
@@ -6348,7 +6370,7 @@
         <v>27900</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L120" t="n">
         <v>251520</v>
@@ -6399,7 +6421,7 @@
         <v>28100</v>
       </c>
       <c r="K121" t="n">
-        <v>6.25</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L121" t="n">
         <v>251600</v>
@@ -6450,7 +6472,7 @@
         <v>28200</v>
       </c>
       <c r="K122" t="n">
-        <v>9.090909090909092</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L122" t="n">
         <v>251680</v>
@@ -6501,7 +6523,7 @@
         <v>28500</v>
       </c>
       <c r="K123" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L123" t="n">
         <v>251800</v>
@@ -6603,7 +6625,7 @@
         <v>28900</v>
       </c>
       <c r="K125" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
         <v>251900</v>
@@ -6654,7 +6676,7 @@
         <v>29000</v>
       </c>
       <c r="K126" t="n">
-        <v>11.76470588235294</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L126" t="n">
         <v>251950</v>
@@ -6705,7 +6727,7 @@
         <v>29400</v>
       </c>
       <c r="K127" t="n">
-        <v>5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>251930</v>
@@ -6756,7 +6778,7 @@
         <v>29400</v>
       </c>
       <c r="K128" t="n">
-        <v>8.571428571428571</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L128" t="n">
         <v>251930</v>
@@ -6807,7 +6829,7 @@
         <v>29500</v>
       </c>
       <c r="K129" t="n">
-        <v>8.571428571428571</v>
+        <v>-37.5</v>
       </c>
       <c r="L129" t="n">
         <v>251890</v>
@@ -6858,7 +6880,7 @@
         <v>29500</v>
       </c>
       <c r="K130" t="n">
-        <v>11.76470588235294</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L130" t="n">
         <v>251830</v>
@@ -6909,7 +6931,7 @@
         <v>29500</v>
       </c>
       <c r="K131" t="n">
-        <v>11.76470588235294</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L131" t="n">
         <v>251790</v>
@@ -6960,7 +6982,7 @@
         <v>29500</v>
       </c>
       <c r="K132" t="n">
-        <v>9.090909090909092</v>
+        <v>-80</v>
       </c>
       <c r="L132" t="n">
         <v>251740</v>
@@ -7011,7 +7033,7 @@
         <v>29700</v>
       </c>
       <c r="K133" t="n">
-        <v>5.88235294117647</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L133" t="n">
         <v>251640</v>
@@ -7062,7 +7084,7 @@
         <v>29800</v>
       </c>
       <c r="K134" t="n">
-        <v>-3.03030303030303</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L134" t="n">
         <v>251560</v>
@@ -7113,7 +7135,7 @@
         <v>29800</v>
       </c>
       <c r="K135" t="n">
-        <v>-13.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L135" t="n">
         <v>251490</v>
@@ -7164,7 +7186,7 @@
         <v>29800</v>
       </c>
       <c r="K136" t="n">
-        <v>-10.3448275862069</v>
+        <v>-100</v>
       </c>
       <c r="L136" t="n">
         <v>251410</v>
@@ -7215,7 +7237,7 @@
         <v>29800</v>
       </c>
       <c r="K137" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L137" t="n">
         <v>251370</v>
@@ -7266,7 +7288,7 @@
         <v>30000</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L138" t="n">
         <v>251350</v>
@@ -7317,7 +7339,7 @@
         <v>30100</v>
       </c>
       <c r="K139" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>251330</v>
@@ -7368,7 +7390,7 @@
         <v>31100</v>
       </c>
       <c r="K140" t="n">
-        <v>6.25</v>
+        <v>50</v>
       </c>
       <c r="L140" t="n">
         <v>251410</v>
@@ -7419,7 +7441,7 @@
         <v>31200</v>
       </c>
       <c r="K141" t="n">
-        <v>9.67741935483871</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L141" t="n">
         <v>251480</v>
@@ -7470,7 +7492,7 @@
         <v>31300</v>
       </c>
       <c r="K142" t="n">
-        <v>3.225806451612903</v>
+        <v>50</v>
       </c>
       <c r="L142" t="n">
         <v>251540</v>
@@ -7521,7 +7543,7 @@
         <v>31500</v>
       </c>
       <c r="K143" t="n">
-        <v>-13.33333333333333</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L143" t="n">
         <v>251600</v>
@@ -7572,7 +7594,7 @@
         <v>31500</v>
       </c>
       <c r="K144" t="n">
-        <v>-3.703703703703703</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L144" t="n">
         <v>251670</v>
@@ -7623,7 +7645,7 @@
         <v>31500</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L145" t="n">
         <v>251740</v>
@@ -7674,7 +7696,7 @@
         <v>31500</v>
       </c>
       <c r="K146" t="n">
-        <v>-4</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L146" t="n">
         <v>251810</v>
@@ -7725,7 +7747,7 @@
         <v>31500</v>
       </c>
       <c r="K147" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>251880</v>
@@ -7776,7 +7798,7 @@
         <v>31500</v>
       </c>
       <c r="K148" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L148" t="n">
         <v>251930</v>
@@ -7827,7 +7849,7 @@
         <v>31600</v>
       </c>
       <c r="K149" t="n">
-        <v>23.80952380952381</v>
+        <v>-60</v>
       </c>
       <c r="L149" t="n">
         <v>252000</v>
@@ -7878,7 +7900,7 @@
         <v>31900</v>
       </c>
       <c r="K150" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L150" t="n">
         <v>252000</v>
@@ -7929,7 +7951,7 @@
         <v>32100</v>
       </c>
       <c r="K151" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L151" t="n">
         <v>252030</v>
@@ -7980,7 +8002,7 @@
         <v>32100</v>
       </c>
       <c r="K152" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>252070</v>
@@ -8031,7 +8053,7 @@
         <v>32500</v>
       </c>
       <c r="K153" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L153" t="n">
         <v>252090</v>
@@ -8082,7 +8104,7 @@
         <v>32500</v>
       </c>
       <c r="K154" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L154" t="n">
         <v>252110</v>
@@ -8133,7 +8155,7 @@
         <v>32700</v>
       </c>
       <c r="K155" t="n">
-        <v>37.93103448275862</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>252150</v>
@@ -8184,7 +8206,7 @@
         <v>32700</v>
       </c>
       <c r="K156" t="n">
-        <v>37.93103448275862</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>252190</v>
@@ -8235,7 +8257,7 @@
         <v>33300</v>
       </c>
       <c r="K157" t="n">
-        <v>48.57142857142857</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L157" t="n">
         <v>252290</v>
@@ -8286,7 +8308,7 @@
         <v>33700</v>
       </c>
       <c r="K158" t="n">
-        <v>29.72972972972973</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L158" t="n">
         <v>252350</v>
@@ -8337,7 +8359,7 @@
         <v>33800</v>
       </c>
       <c r="K159" t="n">
-        <v>29.72972972972973</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L159" t="n">
         <v>252390</v>
@@ -8388,7 +8410,7 @@
         <v>34000</v>
       </c>
       <c r="K160" t="n">
-        <v>-3.448275862068965</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L160" t="n">
         <v>252380</v>
@@ -8439,7 +8461,7 @@
         <v>34000</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L161" t="n">
         <v>252350</v>
@@ -8541,7 +8563,7 @@
         <v>34600</v>
       </c>
       <c r="K163" t="n">
-        <v>22.58064516129032</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L163" t="n">
         <v>252360</v>
@@ -8592,7 +8614,7 @@
         <v>34700</v>
       </c>
       <c r="K164" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L164" t="n">
         <v>252420</v>
@@ -8643,7 +8665,7 @@
         <v>34800</v>
       </c>
       <c r="K165" t="n">
-        <v>27.27272727272727</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L165" t="n">
         <v>252470</v>
@@ -8694,7 +8716,7 @@
         <v>35100</v>
       </c>
       <c r="K166" t="n">
-        <v>16.66666666666666</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L166" t="n">
         <v>252490</v>
@@ -8745,7 +8767,7 @@
         <v>35100</v>
       </c>
       <c r="K167" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>252450</v>
@@ -8796,7 +8818,7 @@
         <v>35300</v>
       </c>
       <c r="K168" t="n">
-        <v>10.52631578947368</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L168" t="n">
         <v>252430</v>
@@ -8847,7 +8869,7 @@
         <v>35700</v>
       </c>
       <c r="K169" t="n">
-        <v>17.07317073170732</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L169" t="n">
         <v>252460</v>
@@ -8898,7 +8920,7 @@
         <v>35900</v>
       </c>
       <c r="K170" t="n">
-        <v>5</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L170" t="n">
         <v>252490</v>
@@ -8949,7 +8971,7 @@
         <v>36200</v>
       </c>
       <c r="K171" t="n">
-        <v>-7.317073170731707</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L171" t="n">
         <v>252490</v>
@@ -9000,7 +9022,7 @@
         <v>36300</v>
       </c>
       <c r="K172" t="n">
-        <v>-9.523809523809524</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L172" t="n">
         <v>252490</v>
@@ -9051,7 +9073,7 @@
         <v>36700</v>
       </c>
       <c r="K173" t="n">
-        <v>9.523809523809524</v>
+        <v>-10</v>
       </c>
       <c r="L173" t="n">
         <v>252480</v>
@@ -9102,7 +9124,7 @@
         <v>36700</v>
       </c>
       <c r="K174" t="n">
-        <v>9.523809523809524</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L174" t="n">
         <v>252460</v>
@@ -9153,7 +9175,7 @@
         <v>37300</v>
       </c>
       <c r="K175" t="n">
-        <v>-8.695652173913043</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L175" t="n">
         <v>252370</v>
@@ -9204,7 +9226,7 @@
         <v>37600</v>
       </c>
       <c r="K176" t="n">
-        <v>-2.040816326530612</v>
+        <v>-12</v>
       </c>
       <c r="L176" t="n">
         <v>252340</v>
@@ -9255,7 +9277,7 @@
         <v>37600</v>
       </c>
       <c r="K177" t="n">
-        <v>-16.27906976744186</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L177" t="n">
         <v>252310</v>
@@ -9306,7 +9328,7 @@
         <v>37800</v>
       </c>
       <c r="K178" t="n">
-        <v>-12.19512195121951</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>252280</v>
@@ -9357,7 +9379,7 @@
         <v>37900</v>
       </c>
       <c r="K179" t="n">
-        <v>-7.317073170731707</v>
+        <v>-20</v>
       </c>
       <c r="L179" t="n">
         <v>252220</v>
@@ -9459,7 +9481,7 @@
         <v>38400</v>
       </c>
       <c r="K181" t="n">
-        <v>9.090909090909092</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L181" t="n">
         <v>252230</v>
@@ -9510,7 +9532,7 @@
         <v>38600</v>
       </c>
       <c r="K182" t="n">
-        <v>6.666666666666667</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L182" t="n">
         <v>252260</v>
@@ -9561,7 +9583,7 @@
         <v>38600</v>
       </c>
       <c r="K183" t="n">
-        <v>-5</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L183" t="n">
         <v>252250</v>
@@ -9612,7 +9634,7 @@
         <v>38800</v>
       </c>
       <c r="K184" t="n">
-        <v>-12.19512195121951</v>
+        <v>20</v>
       </c>
       <c r="L184" t="n">
         <v>252220</v>
@@ -9663,7 +9685,7 @@
         <v>39300</v>
       </c>
       <c r="K185" t="n">
-        <v>-24.44444444444444</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L185" t="n">
         <v>252200</v>
@@ -9714,7 +9736,7 @@
         <v>39400</v>
       </c>
       <c r="K186" t="n">
-        <v>-20.93023255813954</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>252140</v>
@@ -9765,7 +9787,7 @@
         <v>39800</v>
       </c>
       <c r="K187" t="n">
-        <v>-10.63829787234043</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>252120</v>
@@ -9816,7 +9838,7 @@
         <v>40000</v>
       </c>
       <c r="K188" t="n">
-        <v>-10.63829787234043</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>252100</v>
@@ -9867,7 +9889,7 @@
         <v>40200</v>
       </c>
       <c r="K189" t="n">
-        <v>-15.55555555555556</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L189" t="n">
         <v>252090</v>
@@ -9918,7 +9940,7 @@
         <v>40600</v>
       </c>
       <c r="K190" t="n">
-        <v>-19.14893617021277</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L190" t="n">
         <v>252030</v>
@@ -9969,7 +9991,7 @@
         <v>40900</v>
       </c>
       <c r="K191" t="n">
-        <v>-6.382978723404255</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L191" t="n">
         <v>251960</v>
@@ -10020,7 +10042,7 @@
         <v>41000</v>
       </c>
       <c r="K192" t="n">
-        <v>-2.127659574468085</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L192" t="n">
         <v>251920</v>
@@ -10071,7 +10093,7 @@
         <v>41100</v>
       </c>
       <c r="K193" t="n">
-        <v>-9.090909090909092</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L193" t="n">
         <v>251890</v>
@@ -10122,7 +10144,7 @@
         <v>41500</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L194" t="n">
         <v>251920</v>
@@ -10173,7 +10195,7 @@
         <v>41800</v>
       </c>
       <c r="K195" t="n">
-        <v>6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L195" t="n">
         <v>251970</v>
@@ -10224,7 +10246,7 @@
         <v>42000</v>
       </c>
       <c r="K196" t="n">
-        <v>-4.545454545454546</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>252010</v>
@@ -10275,7 +10297,7 @@
         <v>42000</v>
       </c>
       <c r="K197" t="n">
-        <v>-4.545454545454546</v>
+        <v>10</v>
       </c>
       <c r="L197" t="n">
         <v>252010</v>
@@ -10326,7 +10348,7 @@
         <v>42400</v>
       </c>
       <c r="K198" t="n">
-        <v>-8.695652173913043</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L198" t="n">
         <v>251990</v>
@@ -10377,7 +10399,7 @@
         <v>42400</v>
       </c>
       <c r="K199" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>251950</v>
@@ -10428,7 +10450,7 @@
         <v>42700</v>
       </c>
       <c r="K200" t="n">
-        <v>-6.382978723404255</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>251980</v>
@@ -10479,7 +10501,7 @@
         <v>42900</v>
       </c>
       <c r="K201" t="n">
-        <v>-20</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L201" t="n">
         <v>251960</v>
@@ -10530,7 +10552,7 @@
         <v>42900</v>
       </c>
       <c r="K202" t="n">
-        <v>-16.27906976744186</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L202" t="n">
         <v>251930</v>
@@ -10581,7 +10603,7 @@
         <v>43100</v>
       </c>
       <c r="K203" t="n">
-        <v>-11.11111111111111</v>
+        <v>-37.5</v>
       </c>
       <c r="L203" t="n">
         <v>251910</v>
@@ -10632,7 +10654,7 @@
         <v>43400</v>
       </c>
       <c r="K204" t="n">
-        <v>-13.04347826086956</v>
+        <v>-37.5</v>
       </c>
       <c r="L204" t="n">
         <v>251820</v>
@@ -10683,7 +10705,7 @@
         <v>43500</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L205" t="n">
         <v>251770</v>
@@ -10734,7 +10756,7 @@
         <v>43500</v>
       </c>
       <c r="K206" t="n">
-        <v>2.439024390243902</v>
+        <v>-20</v>
       </c>
       <c r="L206" t="n">
         <v>251740</v>
@@ -10785,7 +10807,7 @@
         <v>43700</v>
       </c>
       <c r="K207" t="n">
-        <v>-2.564102564102564</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L207" t="n">
         <v>251730</v>
@@ -10836,7 +10858,7 @@
         <v>44000</v>
       </c>
       <c r="K208" t="n">
-        <v>10</v>
+        <v>37.5</v>
       </c>
       <c r="L208" t="n">
         <v>251790</v>
@@ -10887,7 +10909,7 @@
         <v>44300</v>
       </c>
       <c r="K209" t="n">
-        <v>-2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>251820</v>
@@ -10938,7 +10960,7 @@
         <v>44300</v>
       </c>
       <c r="K210" t="n">
-        <v>8.108108108108109</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L210" t="n">
         <v>251820</v>
@@ -10989,7 +11011,7 @@
         <v>44600</v>
       </c>
       <c r="K211" t="n">
-        <v>-8.108108108108109</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L211" t="n">
         <v>251810</v>
@@ -11040,7 +11062,7 @@
         <v>44700</v>
       </c>
       <c r="K212" t="n">
-        <v>-13.51351351351351</v>
+        <v>-25</v>
       </c>
       <c r="L212" t="n">
         <v>251790</v>
@@ -11091,7 +11113,7 @@
         <v>45100</v>
       </c>
       <c r="K213" t="n">
-        <v>-5</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L213" t="n">
         <v>251790</v>
@@ -11142,7 +11164,7 @@
         <v>45300</v>
       </c>
       <c r="K214" t="n">
-        <v>-21.05263157894737</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>251800</v>
@@ -11193,7 +11215,7 @@
         <v>45400</v>
       </c>
       <c r="K215" t="n">
-        <v>-16.66666666666666</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L215" t="n">
         <v>251790</v>
@@ -11244,7 +11266,7 @@
         <v>45700</v>
       </c>
       <c r="K216" t="n">
-        <v>-2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>251810</v>
@@ -11295,7 +11317,7 @@
         <v>45900</v>
       </c>
       <c r="K217" t="n">
-        <v>-7.692307692307693</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L217" t="n">
         <v>251790</v>
@@ -11346,7 +11368,7 @@
         <v>46000</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L218" t="n">
         <v>251730</v>
@@ -11397,7 +11419,7 @@
         <v>46100</v>
       </c>
       <c r="K219" t="n">
-        <v>2.702702702702703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L219" t="n">
         <v>251710</v>
@@ -11448,7 +11470,7 @@
         <v>46400</v>
       </c>
       <c r="K220" t="n">
-        <v>-13.51351351351351</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L220" t="n">
         <v>251660</v>
@@ -11499,7 +11521,7 @@
         <v>46500</v>
       </c>
       <c r="K221" t="n">
-        <v>-5.555555555555555</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>251650</v>
@@ -11550,7 +11572,7 @@
         <v>46600</v>
       </c>
       <c r="K222" t="n">
-        <v>-8.108108108108109</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>251640</v>
@@ -11601,7 +11623,7 @@
         <v>46600</v>
       </c>
       <c r="K223" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L223" t="n">
         <v>251590</v>
@@ -11652,7 +11674,7 @@
         <v>47000</v>
       </c>
       <c r="K224" t="n">
-        <v>-16.66666666666666</v>
+        <v>-37.5</v>
       </c>
       <c r="L224" t="n">
         <v>251520</v>
@@ -11703,7 +11725,7 @@
         <v>47200</v>
       </c>
       <c r="K225" t="n">
-        <v>-13.51351351351351</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L225" t="n">
         <v>251480</v>
@@ -11754,7 +11776,7 @@
         <v>47400</v>
       </c>
       <c r="K226" t="n">
-        <v>-17.94871794871795</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L226" t="n">
         <v>251390</v>
@@ -11805,7 +11827,7 @@
         <v>47400</v>
       </c>
       <c r="K227" t="n">
-        <v>-24.32432432432433</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L227" t="n">
         <v>251320</v>
@@ -11856,7 +11878,7 @@
         <v>47500</v>
       </c>
       <c r="K228" t="n">
-        <v>-31.42857142857143</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L228" t="n">
         <v>251270</v>
@@ -11907,7 +11929,7 @@
         <v>47600</v>
       </c>
       <c r="K229" t="n">
-        <v>-21.21212121212121</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L229" t="n">
         <v>251220</v>
@@ -11958,7 +11980,7 @@
         <v>47600</v>
       </c>
       <c r="K230" t="n">
-        <v>-21.21212121212121</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L230" t="n">
         <v>251200</v>
@@ -12009,7 +12031,7 @@
         <v>47800</v>
       </c>
       <c r="K231" t="n">
-        <v>-18.75</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L231" t="n">
         <v>251150</v>
@@ -12060,7 +12082,7 @@
         <v>48100</v>
       </c>
       <c r="K232" t="n">
-        <v>-23.52941176470588</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L232" t="n">
         <v>251080</v>
@@ -12111,7 +12133,7 @@
         <v>48500</v>
       </c>
       <c r="K233" t="n">
-        <v>-23.52941176470588</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L233" t="n">
         <v>251050</v>
@@ -12162,7 +12184,7 @@
         <v>48900</v>
       </c>
       <c r="K234" t="n">
-        <v>-5.555555555555555</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L234" t="n">
         <v>251100</v>
@@ -12213,7 +12235,7 @@
         <v>49300</v>
       </c>
       <c r="K235" t="n">
-        <v>-12.82051282051282</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L235" t="n">
         <v>251090</v>
@@ -12264,7 +12286,7 @@
         <v>49400</v>
       </c>
       <c r="K236" t="n">
-        <v>-24.32432432432433</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>251090</v>
@@ -12315,7 +12337,7 @@
         <v>49600</v>
       </c>
       <c r="K237" t="n">
-        <v>-24.32432432432433</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L237" t="n">
         <v>251070</v>
@@ -12366,7 +12388,7 @@
         <v>49600</v>
       </c>
       <c r="K238" t="n">
-        <v>-22.22222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L238" t="n">
         <v>251040</v>
@@ -12417,7 +12439,7 @@
         <v>49800</v>
       </c>
       <c r="K239" t="n">
-        <v>-18.91891891891892</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L239" t="n">
         <v>251020</v>
@@ -12468,7 +12490,7 @@
         <v>50000</v>
       </c>
       <c r="K240" t="n">
-        <v>-16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L240" t="n">
         <v>250980</v>
@@ -12519,7 +12541,7 @@
         <v>50000</v>
       </c>
       <c r="K241" t="n">
-        <v>-20</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L241" t="n">
         <v>250960</v>
@@ -12570,7 +12592,7 @@
         <v>50200</v>
       </c>
       <c r="K242" t="n">
-        <v>-22.22222222222222</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L242" t="n">
         <v>250950</v>
@@ -12621,7 +12643,7 @@
         <v>50400</v>
       </c>
       <c r="K243" t="n">
-        <v>-15.78947368421053</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L243" t="n">
         <v>250920</v>
@@ -12672,7 +12694,7 @@
         <v>50400</v>
       </c>
       <c r="K244" t="n">
-        <v>-5.88235294117647</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L244" t="n">
         <v>250850</v>
@@ -12723,7 +12745,7 @@
         <v>50600</v>
       </c>
       <c r="K245" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>250800</v>
@@ -12774,7 +12796,7 @@
         <v>50800</v>
       </c>
       <c r="K246" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>250780</v>
@@ -12825,7 +12847,7 @@
         <v>50800</v>
       </c>
       <c r="K247" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>250780</v>
@@ -12876,7 +12898,7 @@
         <v>50800</v>
       </c>
       <c r="K248" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L248" t="n">
         <v>250780</v>
@@ -12927,7 +12949,7 @@
         <v>50900</v>
       </c>
       <c r="K249" t="n">
-        <v>-15.15151515151515</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L249" t="n">
         <v>250750</v>
@@ -12978,7 +13000,7 @@
         <v>51200</v>
       </c>
       <c r="K250" t="n">
-        <v>-5.555555555555555</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L250" t="n">
         <v>250770</v>
@@ -13029,7 +13051,7 @@
         <v>51300</v>
       </c>
       <c r="K251" t="n">
-        <v>-2.857142857142857</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L251" t="n">
         <v>250780</v>
@@ -13080,7 +13102,7 @@
         <v>51400</v>
       </c>
       <c r="K252" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L252" t="n">
         <v>250820</v>
@@ -13131,7 +13153,7 @@
         <v>51700</v>
       </c>
       <c r="K253" t="n">
-        <v>-12.5</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L253" t="n">
         <v>250810</v>
@@ -13182,7 +13204,7 @@
         <v>51800</v>
       </c>
       <c r="K254" t="n">
-        <v>-31.03448275862069</v>
+        <v>0</v>
       </c>
       <c r="L254" t="n">
         <v>250790</v>
@@ -13284,7 +13306,7 @@
         <v>52100</v>
       </c>
       <c r="K256" t="n">
-        <v>-3.703703703703703</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L256" t="n">
         <v>250800</v>
@@ -13335,7 +13357,7 @@
         <v>52200</v>
       </c>
       <c r="K257" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L257" t="n">
         <v>250820</v>
@@ -13386,7 +13408,7 @@
         <v>52400</v>
       </c>
       <c r="K258" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>250860</v>
@@ -13437,7 +13459,7 @@
         <v>52700</v>
       </c>
       <c r="K259" t="n">
-        <v>17.24137931034483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>250940</v>
@@ -13488,7 +13510,7 @@
         <v>53200</v>
       </c>
       <c r="K260" t="n">
-        <v>6.25</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L260" t="n">
         <v>250940</v>
@@ -13539,7 +13561,7 @@
         <v>53500</v>
       </c>
       <c r="K261" t="n">
-        <v>-2.857142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L261" t="n">
         <v>250920</v>
@@ -13590,7 +13612,7 @@
         <v>53600</v>
       </c>
       <c r="K262" t="n">
-        <v>5.88235294117647</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L262" t="n">
         <v>250900</v>
@@ -13641,7 +13663,7 @@
         <v>53800</v>
       </c>
       <c r="K263" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L263" t="n">
         <v>250930</v>
@@ -13692,7 +13714,7 @@
         <v>53800</v>
       </c>
       <c r="K264" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L264" t="n">
         <v>250970</v>
@@ -13743,7 +13765,7 @@
         <v>54200</v>
       </c>
       <c r="K265" t="n">
-        <v>22.22222222222222</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L265" t="n">
         <v>251050</v>
@@ -13794,7 +13816,7 @@
         <v>54500</v>
       </c>
       <c r="K266" t="n">
-        <v>8.108108108108109</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L266" t="n">
         <v>251070</v>
@@ -13845,7 +13867,7 @@
         <v>54700</v>
       </c>
       <c r="K267" t="n">
-        <v>12.82051282051282</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L267" t="n">
         <v>251100</v>
@@ -13896,7 +13918,7 @@
         <v>54900</v>
       </c>
       <c r="K268" t="n">
-        <v>17.07317073170732</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>251130</v>
@@ -13947,7 +13969,7 @@
         <v>55400</v>
       </c>
       <c r="K269" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>251080</v>
@@ -13998,7 +14020,7 @@
         <v>55400</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L270" t="n">
         <v>251080</v>
@@ -14049,7 +14071,7 @@
         <v>55500</v>
       </c>
       <c r="K271" t="n">
-        <v>4.761904761904762</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L271" t="n">
         <v>251120</v>
@@ -14100,7 +14122,7 @@
         <v>56100</v>
       </c>
       <c r="K272" t="n">
-        <v>-10.63829787234043</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L272" t="n">
         <v>251090</v>
@@ -14151,7 +14173,7 @@
         <v>56100</v>
       </c>
       <c r="K273" t="n">
-        <v>-4.545454545454546</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L273" t="n">
         <v>251040</v>
@@ -14202,7 +14224,7 @@
         <v>56500</v>
       </c>
       <c r="K274" t="n">
-        <v>-10.63829787234043</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L274" t="n">
         <v>250950</v>
@@ -14253,7 +14275,7 @@
         <v>57000</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L275" t="n">
         <v>250870</v>
@@ -14304,7 +14326,7 @@
         <v>57000</v>
       </c>
       <c r="K276" t="n">
-        <v>-6.122448979591836</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L276" t="n">
         <v>250820</v>
@@ -14355,7 +14377,7 @@
         <v>57000</v>
       </c>
       <c r="K277" t="n">
-        <v>-8.333333333333332</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L277" t="n">
         <v>250750</v>
@@ -14406,7 +14428,7 @@
         <v>57000</v>
       </c>
       <c r="K278" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L278" t="n">
         <v>250660</v>
@@ -14457,7 +14479,7 @@
         <v>57200</v>
       </c>
       <c r="K279" t="n">
-        <v>-24.44444444444444</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L279" t="n">
         <v>250600</v>
@@ -14508,7 +14530,7 @@
         <v>57200</v>
       </c>
       <c r="K280" t="n">
-        <v>-15</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L280" t="n">
         <v>250540</v>
@@ -14559,7 +14581,7 @@
         <v>57200</v>
       </c>
       <c r="K281" t="n">
-        <v>-8.108108108108109</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L281" t="n">
         <v>250470</v>
@@ -14610,7 +14632,7 @@
         <v>57400</v>
       </c>
       <c r="K282" t="n">
-        <v>-15.78947368421053</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L282" t="n">
         <v>250440</v>
@@ -14661,7 +14683,7 @@
         <v>57600</v>
       </c>
       <c r="K283" t="n">
-        <v>-15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L283" t="n">
         <v>250430</v>
@@ -14712,7 +14734,7 @@
         <v>57700</v>
       </c>
       <c r="K284" t="n">
-        <v>-12.82051282051282</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L284" t="n">
         <v>250470</v>
@@ -14763,7 +14785,7 @@
         <v>57900</v>
       </c>
       <c r="K285" t="n">
-        <v>-18.91891891891892</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L285" t="n">
         <v>250480</v>
@@ -14814,7 +14836,7 @@
         <v>58200</v>
       </c>
       <c r="K286" t="n">
-        <v>-2.702702702702703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>250520</v>
@@ -14865,7 +14887,7 @@
         <v>58400</v>
       </c>
       <c r="K287" t="n">
-        <v>-13.51351351351351</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L287" t="n">
         <v>250540</v>
@@ -14916,7 +14938,7 @@
         <v>58800</v>
       </c>
       <c r="K288" t="n">
-        <v>-28.2051282051282</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>250520</v>
@@ -14967,7 +14989,7 @@
         <v>59100</v>
       </c>
       <c r="K289" t="n">
-        <v>-8.108108108108109</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L289" t="n">
         <v>250550</v>
@@ -15018,7 +15040,7 @@
         <v>59100</v>
       </c>
       <c r="K290" t="n">
-        <v>-8.108108108108109</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L290" t="n">
         <v>250580</v>
@@ -15069,7 +15091,7 @@
         <v>59100</v>
       </c>
       <c r="K291" t="n">
-        <v>-11.11111111111111</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L291" t="n">
         <v>250610</v>
@@ -15120,7 +15142,7 @@
         <v>59400</v>
       </c>
       <c r="K292" t="n">
-        <v>15.15151515151515</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>250690</v>
@@ -15171,7 +15193,7 @@
         <v>59400</v>
       </c>
       <c r="K293" t="n">
-        <v>15.15151515151515</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L293" t="n">
         <v>250750</v>
@@ -15222,7 +15244,7 @@
         <v>59700</v>
       </c>
       <c r="K294" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>250770</v>
@@ -15273,7 +15295,7 @@
         <v>59800</v>
       </c>
       <c r="K295" t="n">
-        <v>7.142857142857142</v>
+        <v>-12.5</v>
       </c>
       <c r="L295" t="n">
         <v>250780</v>
@@ -15324,7 +15346,7 @@
         <v>59900</v>
       </c>
       <c r="K296" t="n">
-        <v>10.3448275862069</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L296" t="n">
         <v>250770</v>
@@ -15375,7 +15397,7 @@
         <v>59900</v>
       </c>
       <c r="K297" t="n">
-        <v>10.3448275862069</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L297" t="n">
         <v>250780</v>
@@ -15426,7 +15448,7 @@
         <v>60100</v>
       </c>
       <c r="K298" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>250810</v>
@@ -15477,7 +15499,7 @@
         <v>60300</v>
       </c>
       <c r="K299" t="n">
-        <v>16.12903225806452</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L299" t="n">
         <v>250830</v>
@@ -15528,7 +15550,7 @@
         <v>60500</v>
       </c>
       <c r="K300" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>250830</v>
@@ -15579,7 +15601,7 @@
         <v>60600</v>
       </c>
       <c r="K301" t="n">
-        <v>11.76470588235294</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L301" t="n">
         <v>250840</v>
@@ -15630,7 +15652,7 @@
         <v>60800</v>
       </c>
       <c r="K302" t="n">
-        <v>23.52941176470588</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>250840</v>
@@ -15681,7 +15703,7 @@
         <v>60800</v>
       </c>
       <c r="K303" t="n">
-        <v>18.75</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L303" t="n">
         <v>250840</v>
@@ -15732,7 +15754,7 @@
         <v>60900</v>
       </c>
       <c r="K304" t="n">
-        <v>12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L304" t="n">
         <v>250860</v>
@@ -15783,7 +15805,7 @@
         <v>61000</v>
       </c>
       <c r="K305" t="n">
-        <v>9.67741935483871</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L305" t="n">
         <v>250880</v>
@@ -15834,7 +15856,7 @@
         <v>61000</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L306" t="n">
         <v>250890</v>
@@ -15885,7 +15907,7 @@
         <v>61000</v>
       </c>
       <c r="K307" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L307" t="n">
         <v>250900</v>
@@ -15987,7 +16009,7 @@
         <v>61300</v>
       </c>
       <c r="K309" t="n">
-        <v>27.27272727272727</v>
+        <v>75</v>
       </c>
       <c r="L309" t="n">
         <v>250990</v>
@@ -16038,7 +16060,7 @@
         <v>61700</v>
       </c>
       <c r="K310" t="n">
-        <v>38.46153846153847</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L310" t="n">
         <v>251090</v>
@@ -16089,7 +16111,7 @@
         <v>62200</v>
       </c>
       <c r="K311" t="n">
-        <v>48.38709677419355</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="L311" t="n">
         <v>251230</v>
@@ -16140,7 +16162,7 @@
         <v>62500</v>
       </c>
       <c r="K312" t="n">
-        <v>29.03225806451613</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L312" t="n">
         <v>251320</v>
@@ -16191,7 +16213,7 @@
         <v>62700</v>
       </c>
       <c r="K313" t="n">
-        <v>21.21212121212121</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L313" t="n">
         <v>251390</v>
@@ -16242,7 +16264,7 @@
         <v>62800</v>
       </c>
       <c r="K314" t="n">
-        <v>35.48387096774194</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L314" t="n">
         <v>251480</v>
@@ -16293,7 +16315,7 @@
         <v>62800</v>
       </c>
       <c r="K315" t="n">
-        <v>33.33333333333333</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L315" t="n">
         <v>251560</v>
@@ -16344,7 +16366,7 @@
         <v>63400</v>
       </c>
       <c r="K316" t="n">
-        <v>8.571428571428571</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L316" t="n">
         <v>251580</v>
@@ -16395,7 +16417,7 @@
         <v>63700</v>
       </c>
       <c r="K317" t="n">
-        <v>15.78947368421053</v>
+        <v>12</v>
       </c>
       <c r="L317" t="n">
         <v>251630</v>
@@ -16446,7 +16468,7 @@
         <v>64100</v>
       </c>
       <c r="K318" t="n">
-        <v>30</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L318" t="n">
         <v>251700</v>
@@ -16497,7 +16519,7 @@
         <v>64300</v>
       </c>
       <c r="K319" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>251740</v>
@@ -16548,7 +16570,7 @@
         <v>64500</v>
       </c>
       <c r="K320" t="n">
-        <v>20</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L320" t="n">
         <v>251720</v>
@@ -16599,7 +16621,7 @@
         <v>64500</v>
       </c>
       <c r="K321" t="n">
-        <v>17.94871794871795</v>
+        <v>-20</v>
       </c>
       <c r="L321" t="n">
         <v>251650</v>
@@ -16650,7 +16672,7 @@
         <v>64700</v>
       </c>
       <c r="K322" t="n">
-        <v>17.94871794871795</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>251630</v>
@@ -16701,7 +16723,7 @@
         <v>64900</v>
       </c>
       <c r="K323" t="n">
-        <v>12.19512195121951</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L323" t="n">
         <v>251610</v>
@@ -16752,7 +16774,7 @@
         <v>65100</v>
       </c>
       <c r="K324" t="n">
-        <v>19.04761904761905</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L324" t="n">
         <v>251600</v>
@@ -16803,7 +16825,7 @@
         <v>65200</v>
       </c>
       <c r="K325" t="n">
-        <v>19.04761904761905</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>251600</v>
@@ -16854,7 +16876,7 @@
         <v>65200</v>
       </c>
       <c r="K326" t="n">
-        <v>19.04761904761905</v>
+        <v>20</v>
       </c>
       <c r="L326" t="n">
         <v>251660</v>
@@ -16905,7 +16927,7 @@
         <v>65200</v>
       </c>
       <c r="K327" t="n">
-        <v>19.04761904761905</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L327" t="n">
         <v>251690</v>
@@ -16956,7 +16978,7 @@
         <v>66700</v>
       </c>
       <c r="K328" t="n">
-        <v>38.18181818181819</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L328" t="n">
         <v>251830</v>
@@ -17007,7 +17029,7 @@
         <v>66700</v>
       </c>
       <c r="K329" t="n">
-        <v>37.03703703703704</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L329" t="n">
         <v>251990</v>
@@ -17058,7 +17080,7 @@
         <v>66900</v>
       </c>
       <c r="K330" t="n">
-        <v>34.61538461538461</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L330" t="n">
         <v>252190</v>
@@ -17109,7 +17131,7 @@
         <v>66900</v>
       </c>
       <c r="K331" t="n">
-        <v>27.65957446808511</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L331" t="n">
         <v>252390</v>
@@ -17160,7 +17182,7 @@
         <v>67300</v>
       </c>
       <c r="K332" t="n">
-        <v>41.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="L332" t="n">
         <v>252610</v>
@@ -17211,7 +17233,7 @@
         <v>67400</v>
       </c>
       <c r="K333" t="n">
-        <v>48.93617021276596</v>
+        <v>100</v>
       </c>
       <c r="L333" t="n">
         <v>252860</v>
@@ -17262,7 +17284,7 @@
         <v>67500</v>
       </c>
       <c r="K334" t="n">
-        <v>48.93617021276596</v>
+        <v>100</v>
       </c>
       <c r="L334" t="n">
         <v>253100</v>
@@ -17313,7 +17335,7 @@
         <v>67700</v>
       </c>
       <c r="K335" t="n">
-        <v>51.02040816326531</v>
+        <v>100</v>
       </c>
       <c r="L335" t="n">
         <v>253350</v>
@@ -17364,7 +17386,7 @@
         <v>68300</v>
       </c>
       <c r="K336" t="n">
-        <v>51.02040816326531</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L336" t="n">
         <v>253540</v>
@@ -17415,7 +17437,7 @@
         <v>68900</v>
       </c>
       <c r="K337" t="n">
-        <v>53.84615384615385</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L337" t="n">
         <v>253790</v>
@@ -17466,7 +17488,7 @@
         <v>69300</v>
       </c>
       <c r="K338" t="n">
-        <v>38.46153846153847</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L338" t="n">
         <v>253850</v>
@@ -17517,7 +17539,7 @@
         <v>69400</v>
       </c>
       <c r="K339" t="n">
-        <v>45.09803921568628</v>
+        <v>20</v>
       </c>
       <c r="L339" t="n">
         <v>253920</v>
@@ -17568,7 +17590,7 @@
         <v>69400</v>
       </c>
       <c r="K340" t="n">
-        <v>51.02040816326531</v>
+        <v>20</v>
       </c>
       <c r="L340" t="n">
         <v>253970</v>
@@ -17619,7 +17641,7 @@
         <v>69500</v>
       </c>
       <c r="K341" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>254010</v>
@@ -17670,7 +17692,7 @@
         <v>69600</v>
       </c>
       <c r="K342" t="n">
-        <v>42.85714285714285</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L342" t="n">
         <v>254000</v>
@@ -17721,7 +17743,7 @@
         <v>69900</v>
       </c>
       <c r="K343" t="n">
-        <v>40</v>
+        <v>-25</v>
       </c>
       <c r="L343" t="n">
         <v>253950</v>
@@ -17772,7 +17794,7 @@
         <v>70400</v>
       </c>
       <c r="K344" t="n">
-        <v>43.39622641509434</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L344" t="n">
         <v>253940</v>
@@ -17823,7 +17845,7 @@
         <v>70500</v>
       </c>
       <c r="K345" t="n">
-        <v>39.62264150943396</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L345" t="n">
         <v>253900</v>
@@ -17874,7 +17896,7 @@
         <v>70600</v>
       </c>
       <c r="K346" t="n">
-        <v>37.03703703703704</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L346" t="n">
         <v>253910</v>
@@ -17925,7 +17947,7 @@
         <v>71000</v>
       </c>
       <c r="K347" t="n">
-        <v>41.37931034482759</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L347" t="n">
         <v>253900</v>
@@ -17976,7 +17998,7 @@
         <v>71100</v>
       </c>
       <c r="K348" t="n">
-        <v>22.72727272727273</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L348" t="n">
         <v>253940</v>
@@ -18027,7 +18049,7 @@
         <v>71400</v>
       </c>
       <c r="K349" t="n">
-        <v>14.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>253940</v>
@@ -18078,7 +18100,7 @@
         <v>71400</v>
       </c>
       <c r="K350" t="n">
-        <v>11.11111111111111</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L350" t="n">
         <v>253940</v>
@@ -18129,7 +18151,7 @@
         <v>71600</v>
       </c>
       <c r="K351" t="n">
-        <v>6.382978723404255</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>253930</v>
@@ -18180,7 +18202,7 @@
         <v>72100</v>
       </c>
       <c r="K352" t="n">
-        <v>8.333333333333332</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L352" t="n">
         <v>253980</v>
@@ -18231,7 +18253,7 @@
         <v>72100</v>
       </c>
       <c r="K353" t="n">
-        <v>6.382978723404255</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L353" t="n">
         <v>254060</v>
@@ -18282,7 +18304,7 @@
         <v>72100</v>
       </c>
       <c r="K354" t="n">
-        <v>4.347826086956522</v>
+        <v>25</v>
       </c>
       <c r="L354" t="n">
         <v>254090</v>
@@ -18333,7 +18355,7 @@
         <v>72100</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>254130</v>
@@ -18384,7 +18406,7 @@
         <v>72200</v>
       </c>
       <c r="K356" t="n">
-        <v>17.94871794871795</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L356" t="n">
         <v>254190</v>
@@ -18435,7 +18457,7 @@
         <v>72800</v>
       </c>
       <c r="K357" t="n">
-        <v>17.94871794871795</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L357" t="n">
         <v>254270</v>
@@ -18486,7 +18508,7 @@
         <v>72900</v>
       </c>
       <c r="K358" t="n">
-        <v>27.77777777777778</v>
+        <v>60</v>
       </c>
       <c r="L358" t="n">
         <v>254330</v>
@@ -18537,7 +18559,7 @@
         <v>72900</v>
       </c>
       <c r="K359" t="n">
-        <v>25.71428571428571</v>
+        <v>60</v>
       </c>
       <c r="L359" t="n">
         <v>254420</v>
@@ -18588,7 +18610,7 @@
         <v>73600</v>
       </c>
       <c r="K360" t="n">
-        <v>38.09523809523809</v>
+        <v>90</v>
       </c>
       <c r="L360" t="n">
         <v>254580</v>
@@ -18639,7 +18661,7 @@
         <v>73900</v>
       </c>
       <c r="K361" t="n">
-        <v>31.81818181818182</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L361" t="n">
         <v>254730</v>
@@ -18690,7 +18712,7 @@
         <v>74200</v>
       </c>
       <c r="K362" t="n">
-        <v>39.1304347826087</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L362" t="n">
         <v>254860</v>
@@ -18741,7 +18763,7 @@
         <v>74200</v>
       </c>
       <c r="K363" t="n">
-        <v>48.83720930232558</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L363" t="n">
         <v>254990</v>
@@ -18792,7 +18814,7 @@
         <v>74300</v>
       </c>
       <c r="K364" t="n">
-        <v>38.46153846153847</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L364" t="n">
         <v>255110</v>
@@ -18843,7 +18865,7 @@
         <v>74400</v>
       </c>
       <c r="K365" t="n">
-        <v>43.58974358974359</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L365" t="n">
         <v>255240</v>
@@ -18894,7 +18916,7 @@
         <v>74800</v>
       </c>
       <c r="K366" t="n">
-        <v>33.33333333333333</v>
+        <v>10</v>
       </c>
       <c r="L366" t="n">
         <v>255320</v>
@@ -18945,7 +18967,7 @@
         <v>74900</v>
       </c>
       <c r="K367" t="n">
-        <v>23.07692307692308</v>
+        <v>10</v>
       </c>
       <c r="L367" t="n">
         <v>255330</v>
@@ -18996,7 +19018,7 @@
         <v>74900</v>
       </c>
       <c r="K368" t="n">
-        <v>21.05263157894737</v>
+        <v>10</v>
       </c>
       <c r="L368" t="n">
         <v>255350</v>
@@ -19047,7 +19069,7 @@
         <v>75000</v>
       </c>
       <c r="K369" t="n">
-        <v>27.77777777777778</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L369" t="n">
         <v>255360</v>
@@ -19098,7 +19120,7 @@
         <v>75100</v>
       </c>
       <c r="K370" t="n">
-        <v>24.32432432432433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L370" t="n">
         <v>255290</v>
@@ -19149,7 +19171,7 @@
         <v>75200</v>
       </c>
       <c r="K371" t="n">
-        <v>27.77777777777778</v>
+        <v>-80</v>
       </c>
       <c r="L371" t="n">
         <v>255240</v>
@@ -19200,7 +19222,7 @@
         <v>75500</v>
       </c>
       <c r="K372" t="n">
-        <v>23.52941176470588</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L372" t="n">
         <v>255190</v>
@@ -19251,7 +19273,7 @@
         <v>75500</v>
       </c>
       <c r="K373" t="n">
-        <v>23.52941176470588</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L373" t="n">
         <v>255140</v>
@@ -19302,7 +19324,7 @@
         <v>75800</v>
       </c>
       <c r="K374" t="n">
-        <v>13.51351351351351</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L374" t="n">
         <v>255070</v>
@@ -19353,7 +19375,7 @@
         <v>76000</v>
       </c>
       <c r="K375" t="n">
-        <v>17.94871794871795</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L375" t="n">
         <v>255010</v>
@@ -19404,7 +19426,7 @@
         <v>76000</v>
       </c>
       <c r="K376" t="n">
-        <v>15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L376" t="n">
         <v>254990</v>
@@ -19455,7 +19477,7 @@
         <v>76100</v>
       </c>
       <c r="K377" t="n">
-        <v>-3.03030303030303</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L377" t="n">
         <v>254970</v>
@@ -19506,7 +19528,7 @@
         <v>76200</v>
       </c>
       <c r="K378" t="n">
-        <v>-3.03030303030303</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L378" t="n">
         <v>254940</v>
@@ -19557,7 +19579,7 @@
         <v>76300</v>
       </c>
       <c r="K379" t="n">
-        <v>-5.88235294117647</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L379" t="n">
         <v>254910</v>
@@ -19608,7 +19630,7 @@
         <v>76500</v>
       </c>
       <c r="K380" t="n">
-        <v>-37.93103448275862</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L380" t="n">
         <v>254870</v>
@@ -19659,7 +19681,7 @@
         <v>76600</v>
       </c>
       <c r="K381" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L381" t="n">
         <v>254830</v>
@@ -19761,7 +19783,7 @@
         <v>77000</v>
       </c>
       <c r="K383" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>254750</v>
@@ -19812,7 +19834,7 @@
         <v>77300</v>
       </c>
       <c r="K384" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L384" t="n">
         <v>254720</v>
@@ -19863,7 +19885,7 @@
         <v>77300</v>
       </c>
       <c r="K385" t="n">
-        <v>-37.93103448275862</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L385" t="n">
         <v>254670</v>
@@ -19914,7 +19936,7 @@
         <v>77300</v>
       </c>
       <c r="K386" t="n">
-        <v>-28</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L386" t="n">
         <v>254620</v>
@@ -19965,7 +19987,7 @@
         <v>77300</v>
       </c>
       <c r="K387" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L387" t="n">
         <v>254580</v>
@@ -20016,7 +20038,7 @@
         <v>77600</v>
       </c>
       <c r="K388" t="n">
-        <v>-11.11111111111111</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L388" t="n">
         <v>254580</v>
@@ -20067,7 +20089,7 @@
         <v>77700</v>
       </c>
       <c r="K389" t="n">
-        <v>-11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L389" t="n">
         <v>254580</v>
@@ -20118,7 +20140,7 @@
         <v>77700</v>
       </c>
       <c r="K390" t="n">
-        <v>-7.692307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L390" t="n">
         <v>254600</v>
@@ -20169,7 +20191,7 @@
         <v>77800</v>
       </c>
       <c r="K391" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L391" t="n">
         <v>254640</v>
@@ -20220,7 +20242,7 @@
         <v>78100</v>
       </c>
       <c r="K392" t="n">
-        <v>-23.07692307692308</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L392" t="n">
         <v>254630</v>
@@ -20271,7 +20293,7 @@
         <v>78100</v>
       </c>
       <c r="K393" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>254600</v>
@@ -20322,7 +20344,7 @@
         <v>78300</v>
       </c>
       <c r="K394" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="L394" t="n">
         <v>254620</v>
@@ -20373,7 +20395,7 @@
         <v>78500</v>
       </c>
       <c r="K395" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>254620</v>
@@ -20424,7 +20446,7 @@
         <v>78500</v>
       </c>
       <c r="K396" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>254620</v>
@@ -20475,7 +20497,7 @@
         <v>78500</v>
       </c>
       <c r="K397" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>254620</v>
@@ -20526,7 +20548,7 @@
         <v>78600</v>
       </c>
       <c r="K398" t="n">
-        <v>-8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L398" t="n">
         <v>254600</v>
@@ -20577,7 +20599,7 @@
         <v>78800</v>
       </c>
       <c r="K399" t="n">
-        <v>-12</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L399" t="n">
         <v>254570</v>
@@ -20628,7 +20650,7 @@
         <v>79200</v>
       </c>
       <c r="K400" t="n">
-        <v>-18.51851851851852</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L400" t="n">
         <v>254500</v>
@@ -20679,7 +20701,7 @@
         <v>79300</v>
       </c>
       <c r="K401" t="n">
-        <v>-18.51851851851852</v>
+        <v>-50</v>
       </c>
       <c r="L401" t="n">
         <v>254410</v>
@@ -20730,7 +20752,7 @@
         <v>79400</v>
       </c>
       <c r="K402" t="n">
-        <v>-23.07692307692308</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L402" t="n">
         <v>254360</v>
@@ -20781,7 +20803,7 @@
         <v>79600</v>
       </c>
       <c r="K403" t="n">
-        <v>-38.46153846153847</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L403" t="n">
         <v>254290</v>
@@ -20832,7 +20854,7 @@
         <v>79900</v>
       </c>
       <c r="K404" t="n">
-        <v>-38.46153846153847</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L404" t="n">
         <v>254170</v>
@@ -20883,7 +20905,7 @@
         <v>80200</v>
       </c>
       <c r="K405" t="n">
-        <v>-24.13793103448276</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L405" t="n">
         <v>254100</v>
@@ -20934,7 +20956,7 @@
         <v>80300</v>
       </c>
       <c r="K406" t="n">
-        <v>-26.66666666666667</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L406" t="n">
         <v>254020</v>
@@ -20985,7 +21007,7 @@
         <v>80300</v>
       </c>
       <c r="K407" t="n">
-        <v>-26.66666666666667</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L407" t="n">
         <v>253940</v>
@@ -21036,7 +21058,7 @@
         <v>80500</v>
       </c>
       <c r="K408" t="n">
-        <v>-31.03448275862069</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L408" t="n">
         <v>253870</v>
@@ -21087,7 +21109,7 @@
         <v>80800</v>
       </c>
       <c r="K409" t="n">
-        <v>-35.48387096774194</v>
+        <v>-25</v>
       </c>
       <c r="L409" t="n">
         <v>253790</v>
@@ -21138,7 +21160,7 @@
         <v>80800</v>
       </c>
       <c r="K410" t="n">
-        <v>-35.48387096774194</v>
+        <v>-20</v>
       </c>
       <c r="L410" t="n">
         <v>253750</v>
@@ -21189,7 +21211,7 @@
         <v>80800</v>
       </c>
       <c r="K411" t="n">
-        <v>-40</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L411" t="n">
         <v>253720</v>
@@ -21240,7 +21262,7 @@
         <v>80900</v>
       </c>
       <c r="K412" t="n">
-        <v>-28.57142857142857</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L412" t="n">
         <v>253690</v>
@@ -21291,7 +21313,7 @@
         <v>80900</v>
       </c>
       <c r="K413" t="n">
-        <v>-28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L413" t="n">
         <v>253680</v>
@@ -21342,7 +21364,7 @@
         <v>81000</v>
       </c>
       <c r="K414" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>253710</v>
@@ -21393,7 +21415,7 @@
         <v>81200</v>
       </c>
       <c r="K415" t="n">
-        <v>-18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L415" t="n">
         <v>253730</v>
@@ -21444,7 +21466,7 @@
         <v>81500</v>
       </c>
       <c r="K416" t="n">
-        <v>-6.666666666666667</v>
+        <v>50</v>
       </c>
       <c r="L416" t="n">
         <v>253790</v>
@@ -21495,7 +21517,7 @@
         <v>81800</v>
       </c>
       <c r="K417" t="n">
-        <v>-15.15151515151515</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L417" t="n">
         <v>253820</v>
@@ -21546,7 +21568,7 @@
         <v>81800</v>
       </c>
       <c r="K418" t="n">
-        <v>-18.75</v>
+        <v>40</v>
       </c>
       <c r="L418" t="n">
         <v>253830</v>
@@ -21597,7 +21619,7 @@
         <v>81900</v>
       </c>
       <c r="K419" t="n">
-        <v>-16.12903225806452</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L419" t="n">
         <v>253860</v>
@@ -21648,7 +21670,7 @@
         <v>82400</v>
       </c>
       <c r="K420" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="L420" t="n">
         <v>253940</v>
@@ -21699,7 +21721,7 @@
         <v>82900</v>
       </c>
       <c r="K421" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L421" t="n">
         <v>253970</v>
@@ -21750,7 +21772,7 @@
         <v>83200</v>
       </c>
       <c r="K422" t="n">
-        <v>-10.52631578947368</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L422" t="n">
         <v>253960</v>
@@ -21801,7 +21823,7 @@
         <v>83200</v>
       </c>
       <c r="K423" t="n">
-        <v>-5.555555555555555</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L423" t="n">
         <v>253950</v>
@@ -21852,7 +21874,7 @@
         <v>83400</v>
       </c>
       <c r="K424" t="n">
-        <v>-2.857142857142857</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L424" t="n">
         <v>253910</v>
@@ -21903,7 +21925,7 @@
         <v>83600</v>
       </c>
       <c r="K425" t="n">
-        <v>-17.64705882352941</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L425" t="n">
         <v>253830</v>
@@ -21954,7 +21976,7 @@
         <v>83600</v>
       </c>
       <c r="K426" t="n">
-        <v>-15.15151515151515</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L426" t="n">
         <v>253720</v>
@@ -22005,7 +22027,7 @@
         <v>83800</v>
       </c>
       <c r="K427" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L427" t="n">
         <v>253620</v>
@@ -22056,7 +22078,7 @@
         <v>84300</v>
       </c>
       <c r="K428" t="n">
-        <v>-10.52631578947368</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L428" t="n">
         <v>253570</v>
@@ -22107,7 +22129,7 @@
         <v>84700</v>
       </c>
       <c r="K429" t="n">
-        <v>-12.82051282051282</v>
+        <v>-56.52173913043478</v>
       </c>
       <c r="L429" t="n">
         <v>253490</v>
@@ -22158,7 +22180,7 @@
         <v>84800</v>
       </c>
       <c r="K430" t="n">
-        <v>-10</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L430" t="n">
         <v>253370</v>
@@ -22209,7 +22231,7 @@
         <v>85000</v>
       </c>
       <c r="K431" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L431" t="n">
         <v>253280</v>
@@ -22260,7 +22282,7 @@
         <v>85100</v>
       </c>
       <c r="K432" t="n">
-        <v>-14.28571428571428</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L432" t="n">
         <v>253230</v>
@@ -22311,7 +22333,7 @@
         <v>85100</v>
       </c>
       <c r="K433" t="n">
-        <v>-14.28571428571428</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L433" t="n">
         <v>253180</v>
@@ -22362,7 +22384,7 @@
         <v>85200</v>
       </c>
       <c r="K434" t="n">
-        <v>-19.04761904761905</v>
+        <v>-12.5</v>
       </c>
       <c r="L434" t="n">
         <v>253140</v>
@@ -22413,7 +22435,7 @@
         <v>85400</v>
       </c>
       <c r="K435" t="n">
-        <v>-19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>253140</v>
@@ -22464,7 +22486,7 @@
         <v>85700</v>
       </c>
       <c r="K436" t="n">
-        <v>-19.04761904761905</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L436" t="n">
         <v>253170</v>
@@ -22515,7 +22537,7 @@
         <v>85700</v>
       </c>
       <c r="K437" t="n">
-        <v>-12.82051282051282</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>253220</v>
@@ -22566,7 +22588,7 @@
         <v>86000</v>
       </c>
       <c r="K438" t="n">
-        <v>-4.761904761904762</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L438" t="n">
         <v>253250</v>
@@ -22617,7 +22639,7 @@
         <v>86100</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L439" t="n">
         <v>253330</v>
@@ -22668,7 +22690,7 @@
         <v>86200</v>
       </c>
       <c r="K440" t="n">
-        <v>-10.52631578947368</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L440" t="n">
         <v>253410</v>
@@ -22719,7 +22741,7 @@
         <v>86400</v>
       </c>
       <c r="K441" t="n">
-        <v>-2.857142857142857</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L441" t="n">
         <v>253490</v>
@@ -22770,7 +22792,7 @@
         <v>86700</v>
       </c>
       <c r="K442" t="n">
-        <v>14.28571428571428</v>
+        <v>62.5</v>
       </c>
       <c r="L442" t="n">
         <v>253590</v>
@@ -22821,7 +22843,7 @@
         <v>86900</v>
       </c>
       <c r="K443" t="n">
-        <v>18.91891891891892</v>
+        <v>76.47058823529412</v>
       </c>
       <c r="L443" t="n">
         <v>253710</v>
@@ -22872,7 +22894,7 @@
         <v>87200</v>
       </c>
       <c r="K444" t="n">
-        <v>15.78947368421053</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L444" t="n">
         <v>253810</v>
@@ -22923,7 +22945,7 @@
         <v>87200</v>
       </c>
       <c r="K445" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L445" t="n">
         <v>253890</v>
@@ -22974,7 +22996,7 @@
         <v>87200</v>
       </c>
       <c r="K446" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L446" t="n">
         <v>253940</v>
@@ -23025,7 +23047,7 @@
         <v>87400</v>
       </c>
       <c r="K447" t="n">
-        <v>33.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L447" t="n">
         <v>254010</v>
@@ -23076,7 +23098,7 @@
         <v>87700</v>
       </c>
       <c r="K448" t="n">
-        <v>11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>254020</v>
@@ -23127,7 +23149,7 @@
         <v>87900</v>
       </c>
       <c r="K449" t="n">
-        <v>31.25</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L449" t="n">
         <v>254040</v>
@@ -23178,7 +23200,7 @@
         <v>87900</v>
       </c>
       <c r="K450" t="n">
-        <v>29.03225806451613</v>
+        <v>20</v>
       </c>
       <c r="L450" t="n">
         <v>254050</v>
@@ -23229,7 +23251,7 @@
         <v>88000</v>
       </c>
       <c r="K451" t="n">
-        <v>33.33333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L451" t="n">
         <v>254070</v>
@@ -23280,7 +23302,7 @@
         <v>88300</v>
       </c>
       <c r="K452" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L452" t="n">
         <v>254090</v>
@@ -23331,7 +23353,7 @@
         <v>88600</v>
       </c>
       <c r="K453" t="n">
-        <v>25.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="L453" t="n">
         <v>254060</v>
@@ -23382,7 +23404,7 @@
         <v>88700</v>
       </c>
       <c r="K454" t="n">
-        <v>25.71428571428571</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L454" t="n">
         <v>254050</v>
@@ -23433,7 +23455,7 @@
         <v>89000</v>
       </c>
       <c r="K455" t="n">
-        <v>27.77777777777778</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L455" t="n">
         <v>254070</v>
@@ -23484,7 +23506,7 @@
         <v>89300</v>
       </c>
       <c r="K456" t="n">
-        <v>11.11111111111111</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L456" t="n">
         <v>254060</v>
@@ -23535,7 +23557,7 @@
         <v>89500</v>
       </c>
       <c r="K457" t="n">
-        <v>15.78947368421053</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L457" t="n">
         <v>254050</v>
@@ -23586,7 +23608,7 @@
         <v>89500</v>
       </c>
       <c r="K458" t="n">
-        <v>8.571428571428571</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>254070</v>
@@ -23637,7 +23659,7 @@
         <v>89600</v>
       </c>
       <c r="K459" t="n">
-        <v>2.857142857142857</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L459" t="n">
         <v>254060</v>
@@ -23688,7 +23710,7 @@
         <v>89800</v>
       </c>
       <c r="K460" t="n">
-        <v>-5.555555555555555</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L460" t="n">
         <v>254030</v>
@@ -23739,7 +23761,7 @@
         <v>90100</v>
       </c>
       <c r="K461" t="n">
-        <v>8.108108108108109</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L461" t="n">
         <v>254040</v>
@@ -23790,7 +23812,7 @@
         <v>90100</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L462" t="n">
         <v>254020</v>
@@ -23841,7 +23863,7 @@
         <v>90400</v>
       </c>
       <c r="K463" t="n">
-        <v>2.857142857142857</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L463" t="n">
         <v>254060</v>
@@ -23892,7 +23914,7 @@
         <v>90900</v>
       </c>
       <c r="K464" t="n">
-        <v>-2.702702702702703</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L464" t="n">
         <v>254060</v>
@@ -23943,7 +23965,7 @@
         <v>91300</v>
       </c>
       <c r="K465" t="n">
-        <v>-12.19512195121951</v>
+        <v>-20</v>
       </c>
       <c r="L465" t="n">
         <v>253990</v>
@@ -23994,7 +24016,7 @@
         <v>91800</v>
       </c>
       <c r="K466" t="n">
-        <v>0</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L466" t="n">
         <v>254000</v>
@@ -24045,7 +24067,7 @@
         <v>92000</v>
       </c>
       <c r="K467" t="n">
-        <v>-8.695652173913043</v>
+        <v>-12</v>
       </c>
       <c r="L467" t="n">
         <v>253970</v>
@@ -24096,7 +24118,7 @@
         <v>92200</v>
       </c>
       <c r="K468" t="n">
-        <v>2.222222222222222</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>253960</v>
@@ -24147,7 +24169,7 @@
         <v>92700</v>
       </c>
       <c r="K469" t="n">
-        <v>-12.5</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L469" t="n">
         <v>253910</v>
@@ -24198,7 +24220,7 @@
         <v>93000</v>
       </c>
       <c r="K470" t="n">
-        <v>-5.88235294117647</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L470" t="n">
         <v>253910</v>
@@ -24249,7 +24271,7 @@
         <v>93200</v>
       </c>
       <c r="K471" t="n">
-        <v>0</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L471" t="n">
         <v>253900</v>
@@ -24300,7 +24322,7 @@
         <v>93200</v>
       </c>
       <c r="K472" t="n">
-        <v>-6.122448979591836</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L472" t="n">
         <v>253890</v>
@@ -24351,7 +24373,7 @@
         <v>93200</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L473" t="n">
         <v>253850</v>
@@ -24402,7 +24424,7 @@
         <v>93500</v>
       </c>
       <c r="K474" t="n">
-        <v>8.333333333333332</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L474" t="n">
         <v>253890</v>
@@ -24453,7 +24475,7 @@
         <v>93600</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L475" t="n">
         <v>253960</v>
@@ -24504,7 +24526,7 @@
         <v>94000</v>
       </c>
       <c r="K476" t="n">
-        <v>14.8936170212766</v>
+        <v>40</v>
       </c>
       <c r="L476" t="n">
         <v>254020</v>
@@ -24555,7 +24577,7 @@
         <v>94200</v>
       </c>
       <c r="K477" t="n">
-        <v>14.8936170212766</v>
+        <v>40</v>
       </c>
       <c r="L477" t="n">
         <v>254120</v>
@@ -24606,7 +24628,7 @@
         <v>94400</v>
       </c>
       <c r="K478" t="n">
-        <v>18.36734693877551</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L478" t="n">
         <v>254220</v>
@@ -24657,7 +24679,7 @@
         <v>94800</v>
       </c>
       <c r="K479" t="n">
-        <v>11.53846153846154</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L479" t="n">
         <v>254330</v>
@@ -24708,7 +24730,7 @@
         <v>94800</v>
       </c>
       <c r="K480" t="n">
-        <v>16</v>
+        <v>37.5</v>
       </c>
       <c r="L480" t="n">
         <v>254410</v>
@@ -24759,7 +24781,7 @@
         <v>94800</v>
       </c>
       <c r="K481" t="n">
-        <v>10.63829787234043</v>
+        <v>37.5</v>
       </c>
       <c r="L481" t="n">
         <v>254470</v>
@@ -24810,7 +24832,7 @@
         <v>94800</v>
       </c>
       <c r="K482" t="n">
-        <v>10.63829787234043</v>
+        <v>37.5</v>
       </c>
       <c r="L482" t="n">
         <v>254530</v>
@@ -24861,7 +24883,7 @@
         <v>94800</v>
       </c>
       <c r="K483" t="n">
-        <v>4.545454545454546</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L483" t="n">
         <v>254590</v>
@@ -24912,7 +24934,7 @@
         <v>95100</v>
       </c>
       <c r="K484" t="n">
-        <v>9.523809523809524</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L484" t="n">
         <v>254590</v>
@@ -24963,7 +24985,7 @@
         <v>95200</v>
       </c>
       <c r="K485" t="n">
-        <v>23.07692307692308</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L485" t="n">
         <v>254610</v>
@@ -25014,7 +25036,7 @@
         <v>95300</v>
       </c>
       <c r="K486" t="n">
-        <v>14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L486" t="n">
         <v>254600</v>
@@ -25065,7 +25087,7 @@
         <v>95300</v>
       </c>
       <c r="K487" t="n">
-        <v>21.21212121212121</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L487" t="n">
         <v>254570</v>
@@ -25116,7 +25138,7 @@
         <v>95700</v>
       </c>
       <c r="K488" t="n">
-        <v>25.71428571428571</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L488" t="n">
         <v>254560</v>
@@ -25167,7 +25189,7 @@
         <v>95900</v>
       </c>
       <c r="K489" t="n">
-        <v>37.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L489" t="n">
         <v>254570</v>
@@ -25218,7 +25240,7 @@
         <v>96500</v>
       </c>
       <c r="K490" t="n">
-        <v>42.85714285714285</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L490" t="n">
         <v>254640</v>
@@ -25269,7 +25291,7 @@
         <v>97300</v>
       </c>
       <c r="K491" t="n">
-        <v>12.19512195121951</v>
+        <v>-4</v>
       </c>
       <c r="L491" t="n">
         <v>254630</v>
@@ -25320,7 +25342,7 @@
         <v>97500</v>
       </c>
       <c r="K492" t="n">
-        <v>6.976744186046512</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L492" t="n">
         <v>254600</v>
@@ -25371,7 +25393,7 @@
         <v>97600</v>
       </c>
       <c r="K493" t="n">
-        <v>9.090909090909092</v>
+        <v>4</v>
       </c>
       <c r="L493" t="n">
         <v>254580</v>
@@ -25422,7 +25444,7 @@
         <v>97700</v>
       </c>
       <c r="K494" t="n">
-        <v>4.761904761904762</v>
+        <v>4</v>
       </c>
       <c r="L494" t="n">
         <v>254600</v>
@@ -25473,7 +25495,7 @@
         <v>97800</v>
       </c>
       <c r="K495" t="n">
-        <v>4.761904761904762</v>
+        <v>-4</v>
       </c>
       <c r="L495" t="n">
         <v>254600</v>
@@ -25575,7 +25597,7 @@
         <v>98000</v>
       </c>
       <c r="K497" t="n">
-        <v>-10.52631578947368</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L497" t="n">
         <v>254570</v>
@@ -25626,7 +25648,7 @@
         <v>98000</v>
       </c>
       <c r="K498" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L498" t="n">
         <v>254520</v>
@@ -25677,7 +25699,7 @@
         <v>98400</v>
       </c>
       <c r="K499" t="n">
-        <v>5.555555555555555</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L499" t="n">
         <v>254530</v>
@@ -25728,7 +25750,7 @@
         <v>98700</v>
       </c>
       <c r="K500" t="n">
-        <v>-2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>254450</v>
@@ -25779,7 +25801,7 @@
         <v>98700</v>
       </c>
       <c r="K501" t="n">
-        <v>-2.564102564102564</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L501" t="n">
         <v>254450</v>
@@ -25830,7 +25852,7 @@
         <v>98900</v>
       </c>
       <c r="K502" t="n">
-        <v>-7.317073170731707</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L502" t="n">
         <v>254450</v>
@@ -25881,7 +25903,7 @@
         <v>99500</v>
       </c>
       <c r="K503" t="n">
-        <v>-19.14893617021277</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L503" t="n">
         <v>254380</v>
@@ -25932,7 +25954,7 @@
         <v>99700</v>
       </c>
       <c r="K504" t="n">
-        <v>-17.39130434782609</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L504" t="n">
         <v>254280</v>
@@ -25983,7 +26005,7 @@
         <v>99800</v>
       </c>
       <c r="K505" t="n">
-        <v>-21.73913043478261</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L505" t="n">
         <v>254180</v>
@@ -26034,7 +26056,7 @@
         <v>100100</v>
       </c>
       <c r="K506" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L506" t="n">
         <v>254120</v>
@@ -26085,7 +26107,7 @@
         <v>100400</v>
       </c>
       <c r="K507" t="n">
-        <v>-9.803921568627452</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L507" t="n">
         <v>254080</v>
@@ -26136,7 +26158,7 @@
         <v>100800</v>
       </c>
       <c r="K508" t="n">
-        <v>-25.49019607843137</v>
+        <v>-50</v>
       </c>
       <c r="L508" t="n">
         <v>254000</v>
@@ -26187,7 +26209,7 @@
         <v>101100</v>
       </c>
       <c r="K509" t="n">
-        <v>-26.92307692307692</v>
+        <v>-50</v>
       </c>
       <c r="L509" t="n">
         <v>253850</v>
@@ -26238,7 +26260,7 @@
         <v>101200</v>
       </c>
       <c r="K510" t="n">
-        <v>-40.42553191489361</v>
+        <v>-44</v>
       </c>
       <c r="L510" t="n">
         <v>253740</v>
@@ -26289,7 +26311,7 @@
         <v>101400</v>
       </c>
       <c r="K511" t="n">
-        <v>-21.95121951219512</v>
+        <v>-28</v>
       </c>
       <c r="L511" t="n">
         <v>253650</v>
@@ -26340,7 +26362,7 @@
         <v>101800</v>
       </c>
       <c r="K512" t="n">
-        <v>-6.976744186046512</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L512" t="n">
         <v>253620</v>
@@ -26391,7 +26413,7 @@
         <v>102000</v>
       </c>
       <c r="K513" t="n">
-        <v>-13.63636363636363</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L513" t="n">
         <v>253630</v>
@@ -26442,7 +26464,7 @@
         <v>102200</v>
       </c>
       <c r="K514" t="n">
-        <v>-11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L514" t="n">
         <v>253680</v>
@@ -26493,7 +26515,7 @@
         <v>102500</v>
       </c>
       <c r="K515" t="n">
-        <v>-14.8936170212766</v>
+        <v>0</v>
       </c>
       <c r="L515" t="n">
         <v>253710</v>
@@ -26544,7 +26566,7 @@
         <v>102700</v>
       </c>
       <c r="K516" t="n">
-        <v>-16.66666666666666</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L516" t="n">
         <v>253690</v>
@@ -26595,7 +26617,7 @@
         <v>102700</v>
       </c>
       <c r="K517" t="n">
-        <v>-19.14893617021277</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L517" t="n">
         <v>253640</v>
@@ -26646,7 +26668,7 @@
         <v>102800</v>
       </c>
       <c r="K518" t="n">
-        <v>-16.66666666666666</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L518" t="n">
         <v>253640</v>
@@ -26697,7 +26719,7 @@
         <v>103000</v>
       </c>
       <c r="K519" t="n">
-        <v>-21.73913043478261</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L519" t="n">
         <v>253690</v>
@@ -26748,7 +26770,7 @@
         <v>103100</v>
       </c>
       <c r="K520" t="n">
-        <v>-18.18181818181818</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L520" t="n">
         <v>253720</v>
@@ -26799,7 +26821,7 @@
         <v>103200</v>
       </c>
       <c r="K521" t="n">
-        <v>-20</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L521" t="n">
         <v>253720</v>
@@ -26850,7 +26872,7 @@
         <v>103200</v>
       </c>
       <c r="K522" t="n">
-        <v>-16.27906976744186</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L522" t="n">
         <v>253680</v>
@@ -26901,7 +26923,7 @@
         <v>103200</v>
       </c>
       <c r="K523" t="n">
-        <v>-2.702702702702703</v>
+        <v>-40</v>
       </c>
       <c r="L523" t="n">
         <v>253660</v>
@@ -26952,7 +26974,7 @@
         <v>103400</v>
       </c>
       <c r="K524" t="n">
-        <v>8.108108108108109</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L524" t="n">
         <v>253640</v>
@@ -27003,7 +27025,7 @@
         <v>103600</v>
       </c>
       <c r="K525" t="n">
-        <v>15.78947368421053</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L525" t="n">
         <v>253670</v>
@@ -27054,7 +27076,7 @@
         <v>104000</v>
       </c>
       <c r="K526" t="n">
-        <v>-2.564102564102564</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L526" t="n">
         <v>253680</v>
@@ -27105,7 +27127,7 @@
         <v>104000</v>
       </c>
       <c r="K527" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>253690</v>
@@ -27156,7 +27178,7 @@
         <v>104200</v>
       </c>
       <c r="K528" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L528" t="n">
         <v>253710</v>
@@ -27207,7 +27229,7 @@
         <v>104500</v>
       </c>
       <c r="K529" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L529" t="n">
         <v>253680</v>
@@ -27258,7 +27280,7 @@
         <v>104800</v>
       </c>
       <c r="K530" t="n">
-        <v>11.11111111111111</v>
+        <v>12.5</v>
       </c>
       <c r="L530" t="n">
         <v>253690</v>
@@ -27309,7 +27331,7 @@
         <v>104800</v>
       </c>
       <c r="K531" t="n">
-        <v>5.88235294117647</v>
+        <v>12.5</v>
       </c>
       <c r="L531" t="n">
         <v>253710</v>
@@ -27360,7 +27382,7 @@
         <v>104800</v>
       </c>
       <c r="K532" t="n">
-        <v>-6.666666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="L532" t="n">
         <v>253730</v>
@@ -27411,7 +27433,7 @@
         <v>104900</v>
       </c>
       <c r="K533" t="n">
-        <v>3.448275862068965</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L533" t="n">
         <v>253760</v>
@@ -27462,7 +27484,7 @@
         <v>104900</v>
       </c>
       <c r="K534" t="n">
-        <v>-3.703703703703703</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L534" t="n">
         <v>253770</v>
@@ -27513,7 +27535,7 @@
         <v>105300</v>
       </c>
       <c r="K535" t="n">
-        <v>-7.142857142857142</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L535" t="n">
         <v>253720</v>
@@ -27564,7 +27586,7 @@
         <v>105300</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L536" t="n">
         <v>253710</v>
@@ -27615,7 +27637,7 @@
         <v>105400</v>
       </c>
       <c r="K537" t="n">
-        <v>-3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L537" t="n">
         <v>253690</v>
@@ -27666,7 +27688,7 @@
         <v>105500</v>
       </c>
       <c r="K538" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L538" t="n">
         <v>253640</v>
@@ -27717,7 +27739,7 @@
         <v>105500</v>
       </c>
       <c r="K539" t="n">
-        <v>-20</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L539" t="n">
         <v>253620</v>
@@ -27768,7 +27790,7 @@
         <v>105800</v>
       </c>
       <c r="K540" t="n">
-        <v>-3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L540" t="n">
         <v>253600</v>
@@ -27819,7 +27841,7 @@
         <v>106100</v>
       </c>
       <c r="K541" t="n">
-        <v>10.3448275862069</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L541" t="n">
         <v>253610</v>
@@ -27870,7 +27892,7 @@
         <v>106500</v>
       </c>
       <c r="K542" t="n">
-        <v>-3.03030303030303</v>
+        <v>-25</v>
       </c>
       <c r="L542" t="n">
         <v>253580</v>
@@ -27921,7 +27943,7 @@
         <v>106500</v>
       </c>
       <c r="K543" t="n">
-        <v>-3.03030303030303</v>
+        <v>-25</v>
       </c>
       <c r="L543" t="n">
         <v>253540</v>
@@ -27972,7 +27994,7 @@
         <v>107000</v>
       </c>
       <c r="K544" t="n">
-        <v>5.555555555555555</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L544" t="n">
         <v>253550</v>
@@ -28023,7 +28045,7 @@
         <v>107600</v>
       </c>
       <c r="K545" t="n">
-        <v>-15</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L545" t="n">
         <v>253540</v>
@@ -28074,7 +28096,7 @@
         <v>107700</v>
       </c>
       <c r="K546" t="n">
-        <v>-8.108108108108109</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L546" t="n">
         <v>253520</v>
@@ -28125,7 +28147,7 @@
         <v>107800</v>
       </c>
       <c r="K547" t="n">
-        <v>-10.52631578947368</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L547" t="n">
         <v>253500</v>
@@ -28176,7 +28198,7 @@
         <v>107900</v>
       </c>
       <c r="K548" t="n">
-        <v>-18.91891891891892</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L548" t="n">
         <v>253480</v>
@@ -28227,7 +28249,7 @@
         <v>108400</v>
       </c>
       <c r="K549" t="n">
-        <v>2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L549" t="n">
         <v>253510</v>
@@ -28278,7 +28300,7 @@
         <v>109000</v>
       </c>
       <c r="K550" t="n">
-        <v>-19.04761904761905</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L550" t="n">
         <v>253450</v>
@@ -28329,7 +28351,7 @@
         <v>109500</v>
       </c>
       <c r="K551" t="n">
-        <v>-6.382978723404255</v>
+        <v>0</v>
       </c>
       <c r="L551" t="n">
         <v>253410</v>
@@ -28380,7 +28402,7 @@
         <v>109800</v>
       </c>
       <c r="K552" t="n">
-        <v>-12</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L552" t="n">
         <v>253380</v>
@@ -28431,7 +28453,7 @@
         <v>109900</v>
       </c>
       <c r="K553" t="n">
-        <v>-12</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L553" t="n">
         <v>253360</v>
@@ -28482,7 +28504,7 @@
         <v>110000</v>
       </c>
       <c r="K554" t="n">
-        <v>-9.803921568627452</v>
+        <v>0</v>
       </c>
       <c r="L554" t="n">
         <v>253300</v>
@@ -28533,7 +28555,7 @@
         <v>110000</v>
       </c>
       <c r="K555" t="n">
-        <v>-2.127659574468085</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L555" t="n">
         <v>253300</v>
@@ -28584,7 +28606,7 @@
         <v>110100</v>
       </c>
       <c r="K556" t="n">
-        <v>-4.166666666666666</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L556" t="n">
         <v>253300</v>
@@ -28635,7 +28657,7 @@
         <v>110300</v>
       </c>
       <c r="K557" t="n">
-        <v>-6.122448979591836</v>
+        <v>0</v>
       </c>
       <c r="L557" t="n">
         <v>253290</v>
@@ -28686,7 +28708,7 @@
         <v>110400</v>
       </c>
       <c r="K558" t="n">
-        <v>-2.040816326530612</v>
+        <v>-20</v>
       </c>
       <c r="L558" t="n">
         <v>253300</v>
@@ -28737,7 +28759,7 @@
         <v>110600</v>
       </c>
       <c r="K559" t="n">
-        <v>1.96078431372549</v>
+        <v>25</v>
       </c>
       <c r="L559" t="n">
         <v>253280</v>
@@ -28788,7 +28810,7 @@
         <v>110900</v>
       </c>
       <c r="K560" t="n">
-        <v>-9.803921568627452</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L560" t="n">
         <v>253290</v>
@@ -28839,7 +28861,7 @@
         <v>111100</v>
       </c>
       <c r="K561" t="n">
-        <v>-20</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L561" t="n">
         <v>253230</v>
@@ -28890,7 +28912,7 @@
         <v>111100</v>
       </c>
       <c r="K562" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L562" t="n">
         <v>253200</v>
@@ -28941,7 +28963,7 @@
         <v>111300</v>
       </c>
       <c r="K563" t="n">
-        <v>-16.66666666666666</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L563" t="n">
         <v>253140</v>
@@ -28992,7 +29014,7 @@
         <v>111300</v>
       </c>
       <c r="K564" t="n">
-        <v>-30.23255813953488</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L564" t="n">
         <v>253070</v>
@@ -29043,7 +29065,7 @@
         <v>111500</v>
       </c>
       <c r="K565" t="n">
-        <v>-12.82051282051282</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L565" t="n">
         <v>253020</v>
@@ -29094,7 +29116,7 @@
         <v>111700</v>
       </c>
       <c r="K566" t="n">
-        <v>-15</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L566" t="n">
         <v>252960</v>
@@ -29145,7 +29167,7 @@
         <v>111800</v>
       </c>
       <c r="K567" t="n">
-        <v>-15</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L567" t="n">
         <v>252910</v>
@@ -29196,7 +29218,7 @@
         <v>111800</v>
       </c>
       <c r="K568" t="n">
-        <v>-12.82051282051282</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L568" t="n">
         <v>252850</v>
@@ -29247,7 +29269,7 @@
         <v>111900</v>
       </c>
       <c r="K569" t="n">
-        <v>-31.42857142857143</v>
+        <v>-60</v>
       </c>
       <c r="L569" t="n">
         <v>252760</v>
@@ -29298,7 +29320,7 @@
         <v>112000</v>
       </c>
       <c r="K570" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L570" t="n">
         <v>252690</v>
@@ -29349,7 +29371,7 @@
         <v>112000</v>
       </c>
       <c r="K571" t="n">
-        <v>-44</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L571" t="n">
         <v>252640</v>
@@ -29400,7 +29422,7 @@
         <v>112200</v>
       </c>
       <c r="K572" t="n">
-        <v>-25</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L572" t="n">
         <v>252610</v>
@@ -29451,7 +29473,7 @@
         <v>112300</v>
       </c>
       <c r="K573" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>252610</v>
@@ -29502,7 +29524,7 @@
         <v>112600</v>
       </c>
       <c r="K574" t="n">
-        <v>-15.38461538461539</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L574" t="n">
         <v>252640</v>
@@ -29553,7 +29575,7 @@
         <v>112700</v>
       </c>
       <c r="K575" t="n">
-        <v>-18.51851851851852</v>
+        <v>20</v>
       </c>
       <c r="L575" t="n">
         <v>252640</v>
@@ -29604,7 +29626,7 @@
         <v>112800</v>
       </c>
       <c r="K576" t="n">
-        <v>-18.51851851851852</v>
+        <v>20</v>
       </c>
       <c r="L576" t="n">
         <v>252650</v>
@@ -29655,7 +29677,7 @@
         <v>113000</v>
       </c>
       <c r="K577" t="n">
-        <v>-3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L577" t="n">
         <v>252690</v>
@@ -29706,7 +29728,7 @@
         <v>113100</v>
       </c>
       <c r="K578" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L578" t="n">
         <v>252720</v>
@@ -29757,7 +29779,7 @@
         <v>113200</v>
       </c>
       <c r="K579" t="n">
-        <v>-23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L579" t="n">
         <v>252750</v>
@@ -29808,7 +29830,7 @@
         <v>113400</v>
       </c>
       <c r="K580" t="n">
-        <v>-4</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L580" t="n">
         <v>252810</v>
@@ -29859,7 +29881,7 @@
         <v>113700</v>
       </c>
       <c r="K581" t="n">
-        <v>15.38461538461539</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L581" t="n">
         <v>252900</v>
@@ -29910,7 +29932,7 @@
         <v>113900</v>
       </c>
       <c r="K582" t="n">
-        <v>7.142857142857142</v>
+        <v>25</v>
       </c>
       <c r="L582" t="n">
         <v>252950</v>
@@ -29961,7 +29983,7 @@
         <v>114000</v>
       </c>
       <c r="K583" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L583" t="n">
         <v>252980</v>
@@ -30012,7 +30034,7 @@
         <v>114300</v>
       </c>
       <c r="K584" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L584" t="n">
         <v>252950</v>
@@ -30063,7 +30085,7 @@
         <v>114400</v>
       </c>
       <c r="K585" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L585" t="n">
         <v>252940</v>
@@ -30114,7 +30136,7 @@
         <v>114600</v>
       </c>
       <c r="K586" t="n">
-        <v>10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L586" t="n">
         <v>252960</v>
@@ -30165,7 +30187,7 @@
         <v>114600</v>
       </c>
       <c r="K587" t="n">
-        <v>14.28571428571428</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L587" t="n">
         <v>252960</v>
@@ -30216,7 +30238,7 @@
         <v>114900</v>
       </c>
       <c r="K588" t="n">
-        <v>3.225806451612903</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L588" t="n">
         <v>252940</v>
@@ -30267,7 +30289,7 @@
         <v>115000</v>
       </c>
       <c r="K589" t="n">
-        <v>3.225806451612903</v>
+        <v>-25</v>
       </c>
       <c r="L589" t="n">
         <v>252920</v>
@@ -30318,7 +30340,7 @@
         <v>115400</v>
       </c>
       <c r="K590" t="n">
-        <v>17.64705882352941</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L590" t="n">
         <v>252920</v>
@@ -30369,7 +30391,7 @@
         <v>115400</v>
       </c>
       <c r="K591" t="n">
-        <v>17.64705882352941</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L591" t="n">
         <v>252890</v>
@@ -30420,7 +30442,7 @@
         <v>115500</v>
       </c>
       <c r="K592" t="n">
-        <v>9.090909090909092</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L592" t="n">
         <v>252870</v>
@@ -30471,7 +30493,7 @@
         <v>115500</v>
       </c>
       <c r="K593" t="n">
-        <v>6.25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L593" t="n">
         <v>252860</v>
@@ -30522,7 +30544,7 @@
         <v>115700</v>
       </c>
       <c r="K594" t="n">
-        <v>3.225806451612903</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L594" t="n">
         <v>252900</v>
@@ -30573,7 +30595,7 @@
         <v>115900</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L595" t="n">
         <v>252910</v>
@@ -30624,7 +30646,7 @@
         <v>116000</v>
       </c>
       <c r="K596" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L596" t="n">
         <v>252910</v>
@@ -30675,7 +30697,7 @@
         <v>116000</v>
       </c>
       <c r="K597" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L597" t="n">
         <v>252910</v>
@@ -30726,7 +30748,7 @@
         <v>116000</v>
       </c>
       <c r="K598" t="n">
-        <v>3.448275862068965</v>
+        <v>40</v>
       </c>
       <c r="L598" t="n">
         <v>252940</v>
@@ -30777,7 +30799,7 @@
         <v>116000</v>
       </c>
       <c r="K599" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L599" t="n">
         <v>252980</v>
@@ -30828,7 +30850,7 @@
         <v>116100</v>
       </c>
       <c r="K600" t="n">
-        <v>-3.703703703703703</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L600" t="n">
         <v>252970</v>
@@ -30879,7 +30901,7 @@
         <v>116400</v>
       </c>
       <c r="K601" t="n">
-        <v>-3.703703703703703</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L601" t="n">
         <v>252990</v>
@@ -30930,7 +30952,7 @@
         <v>116600</v>
       </c>
       <c r="K602" t="n">
-        <v>-3.703703703703703</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L602" t="n">
         <v>253000</v>
@@ -30981,7 +31003,7 @@
         <v>116700</v>
       </c>
       <c r="K603" t="n">
-        <v>-3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L603" t="n">
         <v>253000</v>
@@ -31032,7 +31054,7 @@
         <v>116700</v>
       </c>
       <c r="K604" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L604" t="n">
         <v>252980</v>
@@ -31083,7 +31105,7 @@
         <v>116800</v>
       </c>
       <c r="K605" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L605" t="n">
         <v>252970</v>
@@ -31134,7 +31156,7 @@
         <v>116800</v>
       </c>
       <c r="K606" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L606" t="n">
         <v>252950</v>
@@ -31185,7 +31207,7 @@
         <v>117000</v>
       </c>
       <c r="K607" t="n">
-        <v>-16.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L607" t="n">
         <v>252910</v>
@@ -31236,7 +31258,7 @@
         <v>117300</v>
       </c>
       <c r="K608" t="n">
-        <v>8.333333333333332</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L608" t="n">
         <v>252900</v>
@@ -31287,7 +31309,7 @@
         <v>118000</v>
       </c>
       <c r="K609" t="n">
-        <v>-13.33333333333333</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L609" t="n">
         <v>252820</v>
@@ -31338,7 +31360,7 @@
         <v>118900</v>
       </c>
       <c r="K610" t="n">
-        <v>-48.57142857142857</v>
+        <v>-76</v>
       </c>
       <c r="L610" t="n">
         <v>252660</v>
@@ -31389,7 +31411,7 @@
         <v>119600</v>
       </c>
       <c r="K611" t="n">
-        <v>-57.14285714285714</v>
+        <v>-80</v>
       </c>
       <c r="L611" t="n">
         <v>252400</v>
@@ -31440,7 +31462,7 @@
         <v>119700</v>
       </c>
       <c r="K612" t="n">
-        <v>-52.38095238095239</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L612" t="n">
         <v>252170</v>
@@ -31491,7 +31513,7 @@
         <v>120000</v>
       </c>
       <c r="K613" t="n">
-        <v>-42.22222222222222</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L613" t="n">
         <v>251980</v>
@@ -31542,7 +31564,7 @@
         <v>120000</v>
       </c>
       <c r="K614" t="n">
-        <v>-48.83720930232558</v>
+        <v>-56.25</v>
       </c>
       <c r="L614" t="n">
         <v>251790</v>
@@ -31593,7 +31615,7 @@
         <v>120700</v>
       </c>
       <c r="K615" t="n">
-        <v>-25</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L615" t="n">
         <v>251680</v>
@@ -31644,7 +31666,7 @@
         <v>121200</v>
       </c>
       <c r="K616" t="n">
-        <v>-34.61538461538461</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L616" t="n">
         <v>251520</v>
@@ -31695,7 +31717,7 @@
         <v>121500</v>
       </c>
       <c r="K617" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L617" t="n">
         <v>251410</v>
@@ -31746,7 +31768,7 @@
         <v>121800</v>
       </c>
       <c r="K618" t="n">
-        <v>-20.68965517241379</v>
+        <v>-10.52631578947368</v>
       </c>
       <c r="L618" t="n">
         <v>251300</v>
@@ -31797,7 +31819,7 @@
         <v>122100</v>
       </c>
       <c r="K619" t="n">
-        <v>-24.59016393442623</v>
+        <v>6.25</v>
       </c>
       <c r="L619" t="n">
         <v>251230</v>
@@ -31848,7 +31870,7 @@
         <v>122100</v>
       </c>
       <c r="K620" t="n">
-        <v>-23.33333333333333</v>
+        <v>36</v>
       </c>
       <c r="L620" t="n">
         <v>251250</v>
@@ -31899,7 +31921,7 @@
         <v>122200</v>
       </c>
       <c r="K621" t="n">
-        <v>-31.03448275862069</v>
+        <v>28</v>
       </c>
       <c r="L621" t="n">
         <v>251330</v>
@@ -31950,7 +31972,7 @@
         <v>122300</v>
       </c>
       <c r="K622" t="n">
-        <v>-29.82456140350877</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L622" t="n">
         <v>251390</v>
@@ -32001,7 +32023,7 @@
         <v>122400</v>
       </c>
       <c r="K623" t="n">
-        <v>-29.82456140350877</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L623" t="n">
         <v>251410</v>
@@ -32052,7 +32074,7 @@
         <v>122500</v>
       </c>
       <c r="K624" t="n">
-        <v>-31.03448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L624" t="n">
         <v>251420</v>
@@ -32103,7 +32125,7 @@
         <v>122900</v>
       </c>
       <c r="K625" t="n">
-        <v>-21.31147540983606</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L625" t="n">
         <v>251400</v>
@@ -32154,7 +32176,7 @@
         <v>123000</v>
       </c>
       <c r="K626" t="n">
-        <v>-22.58064516129032</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L626" t="n">
         <v>251420</v>
@@ -32205,7 +32227,7 @@
         <v>123600</v>
       </c>
       <c r="K627" t="n">
-        <v>-9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L627" t="n">
         <v>251470</v>
@@ -32256,7 +32278,7 @@
         <v>124400</v>
       </c>
       <c r="K628" t="n">
-        <v>-23.94366197183098</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L628" t="n">
         <v>251410</v>
@@ -32307,7 +32329,7 @@
         <v>124700</v>
       </c>
       <c r="K629" t="n">
-        <v>-10.44776119402985</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>251410</v>
@@ -32358,7 +32380,7 @@
         <v>125000</v>
       </c>
       <c r="K630" t="n">
-        <v>8.196721311475409</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L630" t="n">
         <v>251440</v>
@@ -32409,7 +32431,7 @@
         <v>125000</v>
       </c>
       <c r="K631" t="n">
-        <v>22.22222222222222</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L631" t="n">
         <v>251480</v>
@@ -32460,7 +32482,7 @@
         <v>125000</v>
       </c>
       <c r="K632" t="n">
-        <v>20.75471698113208</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L632" t="n">
         <v>251530</v>
@@ -32511,7 +32533,7 @@
         <v>125000</v>
       </c>
       <c r="K633" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="L633" t="n">
         <v>251590</v>
@@ -32562,7 +32584,7 @@
         <v>125400</v>
       </c>
       <c r="K634" t="n">
-        <v>7.407407407407407</v>
+        <v>-4</v>
       </c>
       <c r="L634" t="n">
         <v>251620</v>
@@ -32613,7 +32635,7 @@
         <v>125600</v>
       </c>
       <c r="K635" t="n">
-        <v>-2.040816326530612</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L635" t="n">
         <v>251630</v>
@@ -32664,7 +32686,7 @@
         <v>125600</v>
       </c>
       <c r="K636" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L636" t="n">
         <v>251650</v>
@@ -32715,7 +32737,7 @@
         <v>126300</v>
       </c>
       <c r="K637" t="n">
-        <v>16.66666666666666</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L637" t="n">
         <v>251680</v>
@@ -32766,7 +32788,7 @@
         <v>128200</v>
       </c>
       <c r="K638" t="n">
-        <v>37.5</v>
+        <v>77.14285714285715</v>
       </c>
       <c r="L638" t="n">
         <v>251980</v>
@@ -32817,7 +32839,7 @@
         <v>128200</v>
       </c>
       <c r="K639" t="n">
-        <v>44.26229508196721</v>
+        <v>75</v>
       </c>
       <c r="L639" t="n">
         <v>252250</v>
@@ -32868,7 +32890,7 @@
         <v>128200</v>
       </c>
       <c r="K640" t="n">
-        <v>44.26229508196721</v>
+        <v>75</v>
       </c>
       <c r="L640" t="n">
         <v>252490</v>
@@ -32919,7 +32941,7 @@
         <v>128900</v>
       </c>
       <c r="K641" t="n">
-        <v>52.23880597014925</v>
+        <v>79.48717948717949</v>
       </c>
       <c r="L641" t="n">
         <v>252800</v>
@@ -32970,7 +32992,7 @@
         <v>129000</v>
       </c>
       <c r="K642" t="n">
-        <v>55.22388059701493</v>
+        <v>80</v>
       </c>
       <c r="L642" t="n">
         <v>253120</v>
@@ -33021,7 +33043,7 @@
         <v>129700</v>
       </c>
       <c r="K643" t="n">
-        <v>42.46575342465754</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="L643" t="n">
         <v>253370</v>
@@ -33072,7 +33094,7 @@
         <v>130000</v>
       </c>
       <c r="K644" t="n">
-        <v>46.66666666666666</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="L644" t="n">
         <v>253690</v>
@@ -33123,7 +33145,7 @@
         <v>130300</v>
       </c>
       <c r="K645" t="n">
-        <v>45.94594594594595</v>
+        <v>70.21276595744681</v>
       </c>
       <c r="L645" t="n">
         <v>254020</v>
@@ -33174,7 +33196,7 @@
         <v>130300</v>
       </c>
       <c r="K646" t="n">
-        <v>47.94520547945205</v>
+        <v>65</v>
       </c>
       <c r="L646" t="n">
         <v>254350</v>
@@ -33225,7 +33247,7 @@
         <v>130700</v>
       </c>
       <c r="K647" t="n">
-        <v>35.2112676056338</v>
+        <v>12</v>
       </c>
       <c r="L647" t="n">
         <v>254570</v>
@@ -33276,7 +33298,7 @@
         <v>131200</v>
       </c>
       <c r="K648" t="n">
-        <v>41.17647058823529</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L648" t="n">
         <v>254550</v>
@@ -33327,7 +33349,7 @@
         <v>131300</v>
       </c>
       <c r="K649" t="n">
-        <v>36.36363636363637</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L649" t="n">
         <v>254520</v>
@@ -33378,7 +33400,7 @@
         <v>131600</v>
       </c>
       <c r="K650" t="n">
-        <v>36.36363636363637</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L650" t="n">
         <v>254520</v>
@@ -33429,7 +33451,7 @@
         <v>131600</v>
       </c>
       <c r="K651" t="n">
-        <v>36.36363636363637</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L651" t="n">
         <v>254450</v>
@@ -33480,7 +33502,7 @@
         <v>131700</v>
       </c>
       <c r="K652" t="n">
-        <v>37.3134328358209</v>
+        <v>0</v>
       </c>
       <c r="L652" t="n">
         <v>254380</v>
@@ -33531,7 +33553,7 @@
         <v>131700</v>
       </c>
       <c r="K653" t="n">
-        <v>37.3134328358209</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L653" t="n">
         <v>254380</v>
@@ -33582,7 +33604,7 @@
         <v>131700</v>
       </c>
       <c r="K654" t="n">
-        <v>46.03174603174603</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L654" t="n">
         <v>254350</v>
@@ -33633,7 +33655,7 @@
         <v>132200</v>
       </c>
       <c r="K655" t="n">
-        <v>48.48484848484848</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L655" t="n">
         <v>254340</v>
@@ -33684,7 +33706,7 @@
         <v>132300</v>
       </c>
       <c r="K656" t="n">
-        <v>46.26865671641791</v>
+        <v>12.5</v>
       </c>
       <c r="L656" t="n">
         <v>254320</v>
@@ -33735,7 +33757,7 @@
         <v>132300</v>
       </c>
       <c r="K657" t="n">
-        <v>40</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L657" t="n">
         <v>254340</v>
@@ -33786,7 +33808,7 @@
         <v>132900</v>
       </c>
       <c r="K658" t="n">
-        <v>-2.127659574468085</v>
+        <v>12.5</v>
       </c>
       <c r="L658" t="n">
         <v>254350</v>
@@ -33837,7 +33859,7 @@
         <v>132900</v>
       </c>
       <c r="K659" t="n">
-        <v>-2.127659574468085</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L659" t="n">
         <v>254370</v>
@@ -33888,7 +33910,7 @@
         <v>133300</v>
       </c>
       <c r="K660" t="n">
-        <v>5.88235294117647</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L660" t="n">
         <v>254400</v>
@@ -33939,7 +33961,7 @@
         <v>133300</v>
       </c>
       <c r="K661" t="n">
-        <v>-9.090909090909092</v>
+        <v>12.5</v>
       </c>
       <c r="L661" t="n">
         <v>254430</v>

--- a/BackTest/2019-10-19 BackTest BCH.xlsx
+++ b/BackTest/2019-10-19 BackTest BCH.xlsx
@@ -3181,13 +3181,17 @@
         <v>253336.6666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>250400</v>
+      </c>
+      <c r="K80" t="n">
+        <v>250400</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3216,14 +3220,22 @@
         <v>253295</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K81" t="n">
+        <v>250400</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3251,14 +3263,22 @@
         <v>253253.3333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>251100</v>
+      </c>
+      <c r="K82" t="n">
+        <v>250400</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3286,13 +3306,17 @@
         <v>253220</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>251200</v>
+      </c>
+      <c r="K83" t="n">
+        <v>251200</v>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
@@ -3327,8 +3351,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>251200</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,8 +3392,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>251200</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -9026,17 +9062,13 @@
         <v>251450</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K247" t="n">
-        <v>250800</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
@@ -9065,22 +9097,14 @@
         <v>251433.3333333333</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K248" t="n">
-        <v>250800</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9108,22 +9132,14 @@
         <v>251411.6666666667</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K249" t="n">
-        <v>250800</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9151,17 +9167,13 @@
         <v>251401.6666666667</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>251000</v>
-      </c>
-      <c r="K250" t="n">
-        <v>251000</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
@@ -9190,22 +9202,14 @@
         <v>251385</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K251" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9233,22 +9237,14 @@
         <v>251368.3333333333</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K252" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9276,22 +9272,14 @@
         <v>251345</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K253" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9319,22 +9307,14 @@
         <v>251313.3333333333</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K254" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9362,22 +9342,14 @@
         <v>251286.6666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>250600</v>
-      </c>
-      <c r="K255" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9405,22 +9377,14 @@
         <v>251268.3333333333</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>250600</v>
-      </c>
-      <c r="K256" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9448,22 +9412,14 @@
         <v>251251.6666666667</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>251000</v>
-      </c>
-      <c r="K257" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9491,22 +9447,14 @@
         <v>251245</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>251200</v>
-      </c>
-      <c r="K258" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9534,22 +9482,14 @@
         <v>251243.3333333333</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>251200</v>
-      </c>
-      <c r="K259" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9583,14 +9523,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9624,14 +9558,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9665,14 +9593,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9706,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9741,22 +9657,14 @@
         <v>251171.6666666667</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>251000</v>
-      </c>
-      <c r="K264" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9790,14 +9698,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9831,14 +9733,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9872,14 +9768,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9913,14 +9803,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9954,14 +9838,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9995,14 +9873,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10036,14 +9908,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10077,14 +9943,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10118,14 +9978,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10159,14 +10013,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10194,22 +10042,14 @@
         <v>251013.3333333333</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>250100</v>
-      </c>
-      <c r="K275" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10237,22 +10077,14 @@
         <v>250991.6666666667</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>250500</v>
-      </c>
-      <c r="K276" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10280,22 +10112,14 @@
         <v>250973.3333333333</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>250600</v>
-      </c>
-      <c r="K277" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10323,22 +10147,14 @@
         <v>250956.6666666667</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>250600</v>
-      </c>
-      <c r="K278" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10366,22 +10182,14 @@
         <v>250935</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>250400</v>
-      </c>
-      <c r="K279" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10409,22 +10217,14 @@
         <v>250918.3333333333</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>250400</v>
-      </c>
-      <c r="K280" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10452,22 +10252,14 @@
         <v>250900</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>250400</v>
-      </c>
-      <c r="K281" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10495,22 +10287,14 @@
         <v>250880</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>250200</v>
-      </c>
-      <c r="K282" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10538,22 +10322,14 @@
         <v>250863.3333333333</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>250400</v>
-      </c>
-      <c r="K283" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10581,22 +10357,14 @@
         <v>250855</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>250300</v>
-      </c>
-      <c r="K284" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10624,22 +10392,14 @@
         <v>250846.6666666667</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K285" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10667,22 +10427,14 @@
         <v>250846.6666666667</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>251000</v>
-      </c>
-      <c r="K286" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10710,22 +10462,14 @@
         <v>250843.3333333333</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K287" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10753,22 +10497,14 @@
         <v>250831.6666666667</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K288" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10796,22 +10532,14 @@
         <v>250823.3333333333</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K289" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10839,22 +10567,14 @@
         <v>250815</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K290" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10882,22 +10602,14 @@
         <v>250810</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K291" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10925,22 +10637,14 @@
         <v>250815</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K292" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10968,22 +10672,14 @@
         <v>250813.3333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>251000</v>
-      </c>
-      <c r="K293" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11011,22 +10707,14 @@
         <v>250800</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K294" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11054,22 +10742,14 @@
         <v>250795</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K295" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11097,22 +10777,14 @@
         <v>250793.3333333333</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K296" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11140,22 +10812,14 @@
         <v>250795</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K297" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11183,22 +10847,14 @@
         <v>250793.3333333333</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K298" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11226,22 +10882,14 @@
         <v>250791.6666666667</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K299" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11269,22 +10917,14 @@
         <v>250790</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K300" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11312,22 +10952,14 @@
         <v>250790</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K301" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11355,22 +10987,14 @@
         <v>250796.6666666667</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>251000</v>
-      </c>
-      <c r="K302" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11398,22 +11022,14 @@
         <v>250800</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K303" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11441,22 +11057,14 @@
         <v>250801.6666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>250900</v>
-      </c>
-      <c r="K304" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11484,22 +11092,14 @@
         <v>250808.3333333333</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>250800</v>
-      </c>
-      <c r="K305" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11527,22 +11127,14 @@
         <v>250811.6666666667</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>251000</v>
-      </c>
-      <c r="K306" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11570,22 +11162,14 @@
         <v>250815</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>251000</v>
-      </c>
-      <c r="K307" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11613,22 +11197,14 @@
         <v>250821.6666666667</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>251200</v>
-      </c>
-      <c r="K308" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11656,22 +11232,14 @@
         <v>250831.6666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>251200</v>
-      </c>
-      <c r="K309" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11699,22 +11267,14 @@
         <v>250843.3333333333</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>251400</v>
-      </c>
-      <c r="K310" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11748,14 +11308,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11789,14 +11343,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11830,14 +11378,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11871,14 +11413,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11912,14 +11448,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11953,14 +11483,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11994,14 +11518,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12035,14 +11553,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12076,14 +11588,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12117,14 +11623,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12158,14 +11658,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12199,14 +11693,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12240,14 +11728,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12281,14 +11763,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12322,14 +11798,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12363,14 +11833,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12404,14 +11868,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12445,14 +11903,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12486,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12527,14 +11973,8 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12565,17 +12005,11 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12609,14 +12043,8 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12650,14 +12078,8 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12691,14 +12113,8 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12732,14 +12148,8 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12773,14 +12183,8 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12814,14 +12218,8 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12855,14 +12253,8 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12896,14 +12288,8 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12937,14 +12323,8 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12978,14 +12358,8 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13019,14 +12393,8 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13060,14 +12428,8 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13101,14 +12463,8 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13142,14 +12498,8 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13183,14 +12533,8 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13224,14 +12568,8 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13265,14 +12603,8 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13306,14 +12638,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13347,14 +12673,8 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13388,14 +12708,8 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13429,14 +12743,8 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13470,14 +12778,8 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13511,14 +12813,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13552,14 +12848,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13593,14 +12883,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13634,14 +12918,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13675,14 +12953,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13713,19 +12985,13 @@
         <v>0</v>
       </c>
       <c r="I359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>251000</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
-        <v>1.010537848605578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -13754,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest BCH.xlsx
+++ b/BackTest/2019-10-19 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3157,7 +3157,7 @@
         <v>134.36572508</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>110.83492508</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4939,10 +4939,14 @@
         <v>-204.35777492</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>250600</v>
+      </c>
+      <c r="J138" t="n">
+        <v>250600</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4972,11 +4976,19 @@
         <v>-126.94477492</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>250400</v>
+      </c>
+      <c r="J139" t="n">
+        <v>250600</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5017,19 @@
         <v>-145.96187492</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>251300</v>
+      </c>
+      <c r="J140" t="n">
+        <v>250600</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,10 +5058,14 @@
         <v>-128.90467492</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>251100</v>
+      </c>
+      <c r="J141" t="n">
+        <v>251100</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5071,11 +5095,19 @@
         <v>-128.00657492</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>251200</v>
+      </c>
+      <c r="J142" t="n">
+        <v>251100</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5139,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>251100</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6825,17 @@
         <v>-72.40287491999997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>251200</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6864,17 @@
         <v>-72.40287491999997</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>251200</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6903,17 @@
         <v>-72.40287491999997</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>251200</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6942,17 @@
         <v>-40.87207491999997</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>251200</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +6985,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7022,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7059,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7096,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7133,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7170,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7207,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7244,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7281,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7318,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7355,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7392,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7429,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7466,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7503,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7540,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7577,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7614,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7651,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7688,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7725,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7762,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7799,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7836,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7873,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7910,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7947,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7984,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8021,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8058,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8095,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8132,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8169,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8206,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8243,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8280,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8317,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8354,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8391,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8428,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8465,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8502,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8539,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8576,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8613,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8650,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8687,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8724,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8761,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8798,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8835,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8872,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8909,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8946,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8983,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9020,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +9057,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9094,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +9131,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9168,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9205,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9242,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9279,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9316,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9353,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9390,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9427,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9464,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9501,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9538,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9575,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9612,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9649,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9686,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9723,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9760,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9797,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9834,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9871,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9908,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9945,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9982,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +10019,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +10056,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +10093,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10130,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10167,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10204,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10241,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10278,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10315,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10352,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10389,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10426,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10463,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10500,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10537,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10574,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10611,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +10648,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10681,17 @@
         <v>-141.63890112</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>250800</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10720,17 @@
         <v>-142.63890112</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>251000</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10759,17 @@
         <v>-142.63890112</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>250800</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10798,17 @@
         <v>-144.02910112</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>250800</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10837,17 @@
         <v>-105.90250112</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>250600</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10876,17 @@
         <v>-105.90250112</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>250800</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10915,17 @@
         <v>-145.0495011199999</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>250800</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10954,17 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>250600</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10993,17 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>250800</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +11032,17 @@
         <v>-119.9526011199999</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>250800</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +11071,17 @@
         <v>-123.8538011199999</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>250800</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +11110,17 @@
         <v>-119.6977011199999</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>250700</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +11149,17 @@
         <v>-120.1639011199999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>251000</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +11188,17 @@
         <v>-118.96710112</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>250900</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +11227,17 @@
         <v>-120.32090112</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>251000</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +11266,17 @@
         <v>-120.52430112</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>250700</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +11305,17 @@
         <v>-120.52430112</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>250600</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +11344,17 @@
         <v>-90.54083910999996</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>250600</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11383,17 @@
         <v>-87.82873910999996</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>250900</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +11422,17 @@
         <v>-85.82873910999996</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>251000</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +11461,17 @@
         <v>-76.62463910999996</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>251200</v>
+      </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11500,17 @@
         <v>-77.65813910999996</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>251500</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11543,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11576,17 @@
         <v>-75.41253910999995</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>250700</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11615,17 @@
         <v>-75.41123910999995</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>250800</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11654,17 @@
         <v>-75.41123910999995</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>251000</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11693,17 @@
         <v>-37.03523910999996</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>251000</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11732,17 @@
         <v>-42.63523910999996</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>251400</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11771,17 @@
         <v>-20.49163910999996</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>251100</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11814,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11851,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11888,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11921,17 @@
         <v>-6.416339109999962</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>251000</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11960,17 @@
         <v>-21.42033910999996</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>251100</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11999,17 @@
         <v>-21.42033910999996</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>250500</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +12038,17 @@
         <v>-55.82053910999996</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>250500</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +12077,17 @@
         <v>-32.94533910999996</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>250100</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +12116,17 @@
         <v>-32.94533910999996</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>250600</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +12155,17 @@
         <v>-32.94533910999996</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>250600</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +12194,17 @@
         <v>-32.94533910999996</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>250600</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +12233,17 @@
         <v>-33.71573910999996</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>250600</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +12272,17 @@
         <v>-33.71573910999996</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>250400</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +12311,17 @@
         <v>-33.71573910999996</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>250400</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +12350,17 @@
         <v>-37.53413910999996</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>250400</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,15 +12389,17 @@
         <v>-37.50563910999995</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>250200</v>
       </c>
-      <c r="J342" t="n">
-        <v>250200</v>
-      </c>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,17 +12428,15 @@
         <v>-18.23763910999995</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>250400</v>
       </c>
-      <c r="J343" t="n">
-        <v>250200</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L343" t="n">
@@ -11749,17 +12467,15 @@
         <v>-12.92913910999995</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>250500</v>
       </c>
-      <c r="J344" t="n">
-        <v>250200</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -11790,15 +12506,17 @@
         <v>-10.20043910999995</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>250700</v>
       </c>
-      <c r="J345" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11827,17 +12545,15 @@
         <v>-15.91733910999995</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>251000</v>
       </c>
-      <c r="J346" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -11868,15 +12584,15 @@
         <v>-46.28203910999996</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>250800</v>
+      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -11907,12 +12623,12 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>250400</v>
+      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11946,12 +12662,12 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
         <v>250700</v>
       </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11985,14 +12701,12 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>250700</v>
       </c>
-      <c r="J350" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12026,12 +12740,12 @@
         <v>29.75216089000005</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
         <v>250700</v>
       </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12065,14 +12779,12 @@
         <v>29.75216089000005</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>251000</v>
       </c>
-      <c r="J352" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12106,12 +12818,12 @@
         <v>22.74766089000004</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12145,12 +12857,12 @@
         <v>24.86426089000005</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
         <v>250700</v>
       </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12184,12 +12896,12 @@
         <v>26.79816089000005</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>250800</v>
+      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12223,12 +12935,12 @@
         <v>26.79816089000005</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>250900</v>
+      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12262,12 +12974,12 @@
         <v>24.05246089000005</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>250900</v>
+      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12301,12 +13013,12 @@
         <v>24.68076089000005</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
         <v>250700</v>
       </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12340,12 +13052,12 @@
         <v>17.04126089000005</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>250900</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12379,12 +13091,12 @@
         <v>17.60976089000005</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
         <v>250700</v>
       </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12418,12 +13130,12 @@
         <v>20.34806089000005</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>250800</v>
+      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12457,12 +13169,12 @@
         <v>20.34806089000005</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12496,12 +13208,12 @@
         <v>16.19496089000005</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12535,12 +13247,12 @@
         <v>22.68676089000004</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>250900</v>
+      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12574,12 +13286,12 @@
         <v>22.68676089000004</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12616,9 +13328,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12652,12 +13362,12 @@
         <v>23.17816089000004</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12691,12 +13401,12 @@
         <v>24.63866089000004</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>251200</v>
+      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12733,9 +13443,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12772,9 +13480,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12811,9 +13517,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12850,9 +13554,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12889,9 +13591,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12928,9 +13628,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,9 +13665,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13006,9 +13702,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13045,9 +13739,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13084,9 +13776,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13123,9 +13813,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13162,9 +13850,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13201,9 +13887,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13240,9 +13924,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13276,12 +13958,12 @@
         <v>65.43360777000005</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>250700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>251500</v>
+      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13318,9 +14000,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13357,9 +14037,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13396,9 +14074,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13435,9 +14111,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13474,9 +14148,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13513,9 +14185,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13549,12 +14219,10 @@
         <v>207.5850077700001</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13591,9 +14259,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13627,12 +14293,10 @@
         <v>239.5385077700001</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13669,9 +14333,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13705,12 +14367,10 @@
         <v>437.5686077700001</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13747,9 +14407,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13783,12 +14441,10 @@
         <v>442.3252077700001</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13825,9 +14481,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13864,9 +14518,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13903,9 +14555,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13942,9 +14592,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13981,9 +14629,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,9 +14666,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14059,9 +14703,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14098,9 +14740,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14137,9 +14777,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14176,9 +14814,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14215,9 +14851,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14254,9 +14888,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14293,9 +14925,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14329,12 +14959,10 @@
         <v>462.2287077700001</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14371,9 +14999,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14407,12 +15033,10 @@
         <v>558.1928077700001</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14449,9 +15073,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14485,12 +15107,10 @@
         <v>558.1928077700001</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14527,9 +15147,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14566,9 +15184,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14605,9 +15221,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14641,12 +15255,10 @@
         <v>617.7905077700001</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14683,9 +15295,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14722,9 +15332,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14761,9 +15369,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14800,9 +15406,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14839,9 +15443,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14878,9 +15480,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14917,9 +15517,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14956,9 +15554,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14995,9 +15591,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15034,9 +15628,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15073,9 +15665,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15109,20 +15699,16 @@
         <v>736.2605077700001</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>250700</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="inlineStr"/>
     </row>
     <row r="431">
@@ -15148,17 +15734,11 @@
         <v>749.5009077700001</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15187,17 +15767,11 @@
         <v>749.5009077700001</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15226,17 +15800,11 @@
         <v>748.4319077700002</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15265,17 +15833,11 @@
         <v>750.4319077700002</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15304,17 +15866,11 @@
         <v>750.4319077700002</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15343,17 +15899,11 @@
         <v>742.1888077700002</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15382,17 +15932,11 @@
         <v>709.3421077700002</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15421,17 +15965,11 @@
         <v>554.9106077700002</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15460,19 +15998,13 @@
         <v>540.0633077700002</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>250700</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
-        <v>1.010157558835261</v>
+        <v>1</v>
       </c>
       <c r="M439" t="inlineStr"/>
     </row>
@@ -15499,7 +16031,7 @@
         <v>539.6633077700002</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15532,7 +16064,7 @@
         <v>540.1273077700002</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15565,7 +16097,7 @@
         <v>540.4190077700002</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15598,7 +16130,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15631,7 +16163,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15664,7 +16196,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15697,7 +16229,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15730,7 +16262,7 @@
         <v>542.6849077700002</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15763,7 +16295,7 @@
         <v>515.7639077700002</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15796,7 +16328,7 @@
         <v>515.7639077700002</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16060,7 +16592,7 @@
         <v>551.3803077700002</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16093,7 +16625,7 @@
         <v>549.0879077700001</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16126,7 +16658,7 @@
         <v>522.5026077700002</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16159,7 +16691,7 @@
         <v>522.3026077700001</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16192,7 +16724,7 @@
         <v>632.1084558000001</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16225,7 +16757,7 @@
         <v>625.9929558000001</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16258,7 +16790,7 @@
         <v>483.6644558000002</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16291,7 +16823,7 @@
         <v>484.6469558000002</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16324,7 +16856,7 @@
         <v>484.4479558000002</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16357,7 +16889,7 @@
         <v>484.4479558000002</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16390,7 +16922,7 @@
         <v>484.4562267700002</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16423,7 +16955,7 @@
         <v>484.2767267700002</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16456,7 +16988,7 @@
         <v>484.2767267700002</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16489,7 +17021,7 @@
         <v>484.2767267700002</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16522,7 +17054,7 @@
         <v>485.3806267700002</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16555,7 +17087,7 @@
         <v>485.3806267700002</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16588,7 +17120,7 @@
         <v>491.0888267700001</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16621,7 +17153,7 @@
         <v>503.0888267700001</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16654,7 +17186,7 @@
         <v>574.8747267700002</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17908,7 +18440,7 @@
         <v>605.6835267700004</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17941,7 +18473,7 @@
         <v>606.4548267700004</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17974,7 +18506,7 @@
         <v>605.4548267700004</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18139,7 +18671,7 @@
         <v>600.4247228300004</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18172,7 +18704,7 @@
         <v>600.4247228300004</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18205,7 +18737,7 @@
         <v>601.7097228300004</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18238,7 +18770,7 @@
         <v>571.2904228300004</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18271,7 +18803,7 @@
         <v>571.0279228300003</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18304,7 +18836,7 @@
         <v>572.2446228300003</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18337,7 +18869,7 @@
         <v>568.1009228300003</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18667,7 +19199,7 @@
         <v>681.2415228300003</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18700,7 +19232,7 @@
         <v>797.7527228300004</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18733,7 +19265,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18766,7 +19298,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18799,7 +19331,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18832,7 +19364,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18865,7 +19397,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18898,7 +19430,7 @@
         <v>532.7878228300003</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18931,7 +19463,7 @@
         <v>538.1294228300003</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18964,7 +19496,7 @@
         <v>555.8985228300003</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18997,7 +19529,7 @@
         <v>555.8985228300003</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19030,7 +19562,7 @@
         <v>572.1587228300003</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19063,7 +19595,7 @@
         <v>561.0694228300003</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19096,7 +19628,7 @@
         <v>612.8206228300004</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19129,7 +19661,7 @@
         <v>479.5815228300004</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19162,7 +19694,7 @@
         <v>479.5704228300004</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19195,7 +19727,7 @@
         <v>480.5239228300004</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19228,7 +19760,7 @@
         <v>481.0653228300004</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19261,7 +19793,7 @@
         <v>480.6091228300004</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19294,7 +19826,7 @@
         <v>471.1453228300004</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19327,7 +19859,7 @@
         <v>471.3873228300004</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19360,7 +19892,7 @@
         <v>471.3873228300004</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19393,7 +19925,7 @@
         <v>480.1907228300004</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19426,7 +19958,7 @@
         <v>475.6666228300004</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19459,7 +19991,7 @@
         <v>475.6666228300004</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19492,7 +20024,7 @@
         <v>471.0040228300005</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19525,7 +20057,7 @@
         <v>438.4732228300005</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19558,7 +20090,7 @@
         <v>343.2820228300005</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19591,7 +20123,7 @@
         <v>342.9758228300005</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19624,7 +20156,7 @@
         <v>343.5042228300005</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19657,7 +20189,7 @@
         <v>344.6592228300004</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19690,7 +20222,7 @@
         <v>334.3758228300004</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19756,7 +20288,7 @@
         <v>263.8403228300004</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19789,7 +20321,7 @@
         <v>266.8403228300004</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19822,7 +20354,7 @@
         <v>287.6665228300004</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19855,7 +20387,7 @@
         <v>210.4657998900004</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19888,7 +20420,7 @@
         <v>341.8857998900004</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19921,7 +20453,7 @@
         <v>337.9359998900004</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19954,7 +20486,7 @@
         <v>326.9746998900004</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -23221,11 +23753,17 @@
         <v>63.37180128000039</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>251000</v>
+      </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23258,7 +23796,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +23829,17 @@
         <v>49.79710128000039</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>251200</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +23868,17 @@
         <v>52.50950128000039</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>251500</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23357,7 +23911,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23390,7 +23948,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23423,7 +23985,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23456,7 +24022,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23489,7 +24059,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23522,7 +24096,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23555,7 +24133,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23588,7 +24170,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23621,7 +24207,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +24244,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23687,7 +24281,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +24318,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +24355,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +24392,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +24429,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +24466,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +24503,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +24540,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24577,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24614,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24651,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24688,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24079,11 +24721,15 @@
         <v>253.5984012800004</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24762,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +24799,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +24836,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +24873,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +24910,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +24947,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +24984,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +25021,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24380,13 +25058,17 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
       <c r="M709" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BCH.xlsx
+++ b/BackTest/2019-10-19 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4939,14 +4939,10 @@
         <v>-204.35777492</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>250600</v>
-      </c>
-      <c r="J138" t="n">
-        <v>250600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4976,19 +4972,11 @@
         <v>-126.94477492</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>250400</v>
-      </c>
-      <c r="J139" t="n">
-        <v>250600</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5017,19 +5005,11 @@
         <v>-145.96187492</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>251300</v>
-      </c>
-      <c r="J140" t="n">
-        <v>250600</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5058,14 +5038,10 @@
         <v>-128.90467492</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>251100</v>
-      </c>
-      <c r="J141" t="n">
-        <v>251100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5095,19 +5071,11 @@
         <v>-128.00657492</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>251200</v>
-      </c>
-      <c r="J142" t="n">
-        <v>251100</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5139,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>251100</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5967,10 +5929,14 @@
         <v>-107.36297492</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>251300</v>
+      </c>
+      <c r="J168" t="n">
+        <v>251300</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
@@ -6000,11 +5966,19 @@
         <v>-107.37307492</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>251200</v>
+      </c>
+      <c r="J169" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6033,11 +6007,19 @@
         <v>-107.37307492</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>251100</v>
+      </c>
+      <c r="J170" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6066,11 +6048,19 @@
         <v>-105.33997492</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>251100</v>
+      </c>
+      <c r="J171" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6102,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6135,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6168,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6201,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6234,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6300,8 +6326,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6333,8 +6365,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6366,8 +6404,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6399,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6432,8 +6482,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6465,8 +6521,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6498,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6531,8 +6599,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6564,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6597,8 +6677,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6630,8 +6716,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6663,8 +6755,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6696,8 +6794,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6729,8 +6833,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6762,8 +6872,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6795,8 +6911,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>251300</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6825,15 +6947,15 @@
         <v>-72.40287491999997</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>251200</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>251300</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6864,12 +6986,12 @@
         <v>-72.40287491999997</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>251200</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>251300</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6903,12 +7025,12 @@
         <v>-72.40287491999997</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>251200</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>251300</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6942,12 +7064,12 @@
         <v>-40.87207491999997</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>251200</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>251300</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6984,7 +7106,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>251300</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7021,7 +7145,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>251300</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7058,7 +7184,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>251300</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,7 +7223,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>251300</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7132,7 +7262,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>251300</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7169,7 +7301,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>251300</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7206,7 +7340,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>251300</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7243,7 +7379,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>251300</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7280,7 +7418,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>251300</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7317,7 +7457,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>251300</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7354,7 +7496,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>251300</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7391,7 +7535,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>251300</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7428,7 +7574,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>251300</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,7 +7613,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>251300</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7502,7 +7652,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>251300</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7539,7 +7691,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>251300</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7576,7 +7730,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>251300</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7613,7 +7769,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>251300</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7650,7 +7808,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>251300</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7687,7 +7847,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>251300</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7724,7 +7886,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>251300</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7761,7 +7925,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>251300</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7798,7 +7964,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>251300</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7835,7 +8003,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>251300</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7872,7 +8042,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>251300</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7909,7 +8081,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>251300</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7946,7 +8120,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>251300</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7983,7 +8159,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>251300</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8020,7 +8198,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>251300</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8057,7 +8237,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>251300</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,7 +8276,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>251300</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,7 +8315,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>251300</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8168,7 +8354,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>251300</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8205,7 +8393,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>251300</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8242,7 +8432,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>251300</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8279,7 +8471,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>251300</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8316,7 +8510,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>251300</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,7 +8549,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>251300</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,7 +8588,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>251300</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8427,7 +8627,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>251300</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,7 +8666,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>251300</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8501,7 +8705,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>251300</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8538,7 +8744,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>251300</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8575,7 +8783,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>251300</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8612,7 +8822,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>251300</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8649,7 +8861,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>251300</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8686,7 +8900,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>251300</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8723,7 +8939,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>251300</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8760,7 +8978,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>251300</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8797,7 +9017,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>251300</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8834,7 +9056,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>251300</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,7 +9095,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>251300</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8908,7 +9134,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>251300</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,7 +9173,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>251300</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8982,7 +9212,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>251300</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9019,7 +9251,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>251300</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9056,7 +9290,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>251300</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9093,7 +9329,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>251300</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9130,7 +9368,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>251300</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9167,7 +9407,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>251300</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9204,7 +9446,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>251300</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9241,7 +9485,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>251300</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9278,7 +9524,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>251300</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9315,7 +9563,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>251300</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9352,7 +9602,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>251300</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9389,7 +9641,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>251300</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9426,7 +9680,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>251300</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9463,7 +9719,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>251300</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9500,7 +9758,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>251300</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9537,7 +9797,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>251300</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,7 +9836,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>251300</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9611,7 +9875,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>251300</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9648,7 +9914,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>251300</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9685,7 +9953,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>251300</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9722,7 +9992,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>251300</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9759,7 +10031,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>251300</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9796,7 +10070,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>251300</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9833,7 +10109,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>251300</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9870,7 +10148,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>251300</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9907,7 +10187,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>251300</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9944,7 +10226,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>251300</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9981,7 +10265,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>251300</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10018,7 +10304,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>251300</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10055,7 +10343,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>251300</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10092,7 +10382,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>251300</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10129,7 +10421,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>251300</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10163,10 +10457,14 @@
         <v>-75.03120111999996</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J284" t="n">
+        <v>251300</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10200,10 +10498,14 @@
         <v>-95.68570111999996</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>251200</v>
+      </c>
+      <c r="J285" t="n">
+        <v>251300</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10237,10 +10539,14 @@
         <v>-95.68570111999996</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J286" t="n">
+        <v>251300</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10274,10 +10580,14 @@
         <v>-94.17530111999996</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J287" t="n">
+        <v>251300</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10311,10 +10621,14 @@
         <v>-79.78080111999995</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>251100</v>
+      </c>
+      <c r="J288" t="n">
+        <v>251300</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10351,7 +10665,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>251300</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10388,7 +10704,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>251300</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10422,10 +10740,14 @@
         <v>-132.47030112</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J291" t="n">
+        <v>251300</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10459,10 +10781,14 @@
         <v>-131.99790112</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>250700</v>
+      </c>
+      <c r="J292" t="n">
+        <v>251300</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10496,10 +10822,14 @@
         <v>-127.92920112</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>251100</v>
+      </c>
+      <c r="J293" t="n">
+        <v>251300</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10536,7 +10866,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>251300</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10570,10 +10902,14 @@
         <v>-141.17380112</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>251100</v>
+      </c>
+      <c r="J295" t="n">
+        <v>251300</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10607,10 +10943,14 @@
         <v>-141.86390112</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>251000</v>
+      </c>
+      <c r="J296" t="n">
+        <v>251300</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10644,10 +10984,14 @@
         <v>-141.86390112</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>250800</v>
+      </c>
+      <c r="J297" t="n">
+        <v>251300</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10686,7 +11030,9 @@
       <c r="I298" t="n">
         <v>250800</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>251300</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10725,7 +11071,9 @@
       <c r="I299" t="n">
         <v>251000</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>251300</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10764,7 +11112,9 @@
       <c r="I300" t="n">
         <v>250800</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>251300</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10803,7 +11153,9 @@
       <c r="I301" t="n">
         <v>250800</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>251300</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10842,7 +11194,9 @@
       <c r="I302" t="n">
         <v>250600</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>251300</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10881,7 +11235,9 @@
       <c r="I303" t="n">
         <v>250800</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>251300</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10920,7 +11276,9 @@
       <c r="I304" t="n">
         <v>250800</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>251300</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10959,7 +11317,9 @@
       <c r="I305" t="n">
         <v>250600</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>251300</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10998,7 +11358,9 @@
       <c r="I306" t="n">
         <v>250800</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>251300</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11037,7 +11399,9 @@
       <c r="I307" t="n">
         <v>250800</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>251300</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11076,7 +11440,9 @@
       <c r="I308" t="n">
         <v>250800</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>251300</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11115,7 +11481,9 @@
       <c r="I309" t="n">
         <v>250700</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>251300</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11154,7 +11522,9 @@
       <c r="I310" t="n">
         <v>251000</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>251300</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11193,7 +11563,9 @@
       <c r="I311" t="n">
         <v>250900</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>251300</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11232,7 +11604,9 @@
       <c r="I312" t="n">
         <v>251000</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>251300</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11271,7 +11645,9 @@
       <c r="I313" t="n">
         <v>250700</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>251300</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11310,7 +11686,9 @@
       <c r="I314" t="n">
         <v>250600</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>251300</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11349,7 +11727,9 @@
       <c r="I315" t="n">
         <v>250600</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>251300</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11388,7 +11768,9 @@
       <c r="I316" t="n">
         <v>250900</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>251300</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11427,7 +11809,9 @@
       <c r="I317" t="n">
         <v>251000</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>251300</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11466,7 +11850,9 @@
       <c r="I318" t="n">
         <v>251200</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>251300</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11500,12 +11886,12 @@
         <v>-77.65813910999996</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>251500</v>
-      </c>
-      <c r="J319" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>251300</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11542,7 +11928,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>251300</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11576,12 +11964,12 @@
         <v>-75.41253910999995</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>250700</v>
-      </c>
-      <c r="J321" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>251300</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11615,12 +12003,12 @@
         <v>-75.41123910999995</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>250800</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>251300</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11654,12 +12042,12 @@
         <v>-75.41123910999995</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>251300</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11693,12 +12081,12 @@
         <v>-37.03523910999996</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>251300</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,12 +12120,12 @@
         <v>-42.63523910999996</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>251400</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>251300</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11771,12 +12159,12 @@
         <v>-20.49163910999996</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>251100</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>251300</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11813,7 +12201,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>251300</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11850,7 +12240,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>251300</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11887,7 +12279,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>251300</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11921,12 +12315,12 @@
         <v>-6.416339109999962</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>251300</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11960,12 +12354,12 @@
         <v>-21.42033910999996</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>251100</v>
-      </c>
-      <c r="J331" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>251300</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11999,12 +12393,12 @@
         <v>-21.42033910999996</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>250500</v>
-      </c>
-      <c r="J332" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>251300</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12038,12 +12432,12 @@
         <v>-55.82053910999996</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>250500</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>251300</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12077,12 +12471,12 @@
         <v>-32.94533910999996</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>250100</v>
-      </c>
-      <c r="J334" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>251300</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12121,7 +12515,9 @@
       <c r="I335" t="n">
         <v>250600</v>
       </c>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>251300</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12160,7 +12556,9 @@
       <c r="I336" t="n">
         <v>250600</v>
       </c>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>251300</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12199,7 +12597,9 @@
       <c r="I337" t="n">
         <v>250600</v>
       </c>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>251300</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12238,7 +12638,9 @@
       <c r="I338" t="n">
         <v>250600</v>
       </c>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>251300</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12277,7 +12679,9 @@
       <c r="I339" t="n">
         <v>250400</v>
       </c>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>251300</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12316,7 +12720,9 @@
       <c r="I340" t="n">
         <v>250400</v>
       </c>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>251300</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12355,7 +12761,9 @@
       <c r="I341" t="n">
         <v>250400</v>
       </c>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>251300</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12394,7 +12802,9 @@
       <c r="I342" t="n">
         <v>250200</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>251300</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12433,7 +12843,9 @@
       <c r="I343" t="n">
         <v>250400</v>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>251300</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12472,7 +12884,9 @@
       <c r="I344" t="n">
         <v>250500</v>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>251300</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12511,7 +12925,9 @@
       <c r="I345" t="n">
         <v>250700</v>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>251300</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12545,12 +12961,12 @@
         <v>-15.91733910999995</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J346" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>251300</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12589,7 +13005,9 @@
       <c r="I347" t="n">
         <v>250800</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>251300</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12628,7 +13046,9 @@
       <c r="I348" t="n">
         <v>250400</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>251300</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12662,12 +13082,12 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>250700</v>
-      </c>
-      <c r="J349" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>251300</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12701,12 +13121,12 @@
         <v>26.06476089000004</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>250700</v>
-      </c>
-      <c r="J350" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>251300</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12740,12 +13160,12 @@
         <v>29.75216089000005</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>250700</v>
-      </c>
-      <c r="J351" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>251300</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12779,12 +13199,12 @@
         <v>29.75216089000005</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J352" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>251300</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12818,12 +13238,12 @@
         <v>22.74766089000004</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J353" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>251300</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12857,12 +13277,12 @@
         <v>24.86426089000005</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>250700</v>
-      </c>
-      <c r="J354" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>251300</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12896,12 +13316,12 @@
         <v>26.79816089000005</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>250800</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>251300</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12935,12 +13355,12 @@
         <v>26.79816089000005</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>250900</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>251300</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12974,12 +13394,12 @@
         <v>24.05246089000005</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>250900</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>251300</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13013,12 +13433,12 @@
         <v>24.68076089000005</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>250700</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>251300</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13052,12 +13472,12 @@
         <v>17.04126089000005</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>250900</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>251300</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13091,12 +13511,12 @@
         <v>17.60976089000005</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>250700</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>251300</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13130,12 +13550,12 @@
         <v>20.34806089000005</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>250800</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>251300</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13169,12 +13589,12 @@
         <v>20.34806089000005</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>251300</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13208,12 +13628,12 @@
         <v>16.19496089000005</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>251300</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13247,12 +13667,12 @@
         <v>22.68676089000004</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>250900</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>251300</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13286,12 +13706,12 @@
         <v>22.68676089000004</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>251300</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13328,7 +13748,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>251300</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13362,12 +13784,12 @@
         <v>23.17816089000004</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>251000</v>
-      </c>
-      <c r="J367" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>251300</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13401,12 +13823,12 @@
         <v>24.63866089000004</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>251200</v>
-      </c>
-      <c r="J368" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>251300</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13443,7 +13865,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>251300</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13480,7 +13904,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>251300</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13517,7 +13943,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>251300</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13554,7 +13982,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>251300</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13591,7 +14021,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>251300</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13628,7 +14060,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>251300</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13665,7 +14099,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>251300</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13702,7 +14138,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>251300</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13739,7 +14177,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>251300</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13776,7 +14216,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>251300</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13813,7 +14255,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>251300</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13850,7 +14294,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>251300</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13887,7 +14333,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>251300</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13924,7 +14372,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>251300</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13958,12 +14408,12 @@
         <v>65.43360777000005</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>251500</v>
-      </c>
-      <c r="J383" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>251300</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14000,7 +14450,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>251300</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14037,7 +14489,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>251300</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14074,7 +14528,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>251300</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14111,7 +14567,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>251300</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14148,7 +14606,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>251300</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14182,17 +14642,19 @@
         <v>207.5850077700001</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>251300</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L389" t="n">
-        <v>1</v>
+        <v>1.003754476721051</v>
       </c>
       <c r="M389" t="inlineStr"/>
     </row>
@@ -14219,15 +14681,11 @@
         <v>207.5850077700001</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14256,15 +14714,11 @@
         <v>224.7279077700001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14293,15 +14747,11 @@
         <v>239.5385077700001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14330,15 +14780,11 @@
         <v>406.5662077700001</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14367,15 +14813,11 @@
         <v>437.5686077700001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14404,15 +14846,11 @@
         <v>422.7476077700001</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14441,15 +14879,11 @@
         <v>442.3252077700001</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14478,15 +14912,11 @@
         <v>437.3818077700001</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14515,15 +14945,11 @@
         <v>442.8805077700001</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14552,15 +14978,11 @@
         <v>442.8805077700001</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14589,15 +15011,11 @@
         <v>442.3051077700001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14626,15 +15044,11 @@
         <v>441.44670777</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14663,15 +15077,11 @@
         <v>417.00330777</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14704,11 +15114,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14741,11 +15147,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14778,11 +15180,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14815,11 +15213,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14852,11 +15246,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14889,11 +15279,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14926,11 +15312,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14963,11 +15345,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15000,11 +15378,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15411,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15070,15 +15440,11 @@
         <v>558.1928077700001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15107,15 +15473,11 @@
         <v>558.1928077700001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15144,15 +15506,11 @@
         <v>592.22420777</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15181,15 +15539,11 @@
         <v>637.6588077700001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15218,15 +15572,11 @@
         <v>617.7905077700001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15255,15 +15605,11 @@
         <v>617.7905077700001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15292,15 +15638,11 @@
         <v>777.5337077700001</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15329,15 +15671,11 @@
         <v>770.0643077700001</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15370,11 +15708,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15407,11 +15741,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15444,11 +15774,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15481,11 +15807,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15518,11 +15840,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15555,11 +15873,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15592,11 +15906,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15629,11 +15939,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15666,11 +15972,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15699,16 +16001,14 @@
         <v>736.2605077700001</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
       <c r="M430" t="inlineStr"/>
     </row>
     <row r="431">
@@ -15734,7 +16034,7 @@
         <v>749.5009077700001</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15767,7 +16067,7 @@
         <v>749.5009077700001</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15800,7 +16100,7 @@
         <v>748.4319077700002</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15833,7 +16133,7 @@
         <v>750.4319077700002</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15866,7 +16166,7 @@
         <v>750.4319077700002</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15899,7 +16199,7 @@
         <v>742.1888077700002</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15932,7 +16232,7 @@
         <v>709.3421077700002</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15965,7 +16265,7 @@
         <v>554.9106077700002</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15998,7 +16298,7 @@
         <v>540.0633077700002</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16031,7 +16331,7 @@
         <v>539.6633077700002</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16064,7 +16364,7 @@
         <v>540.1273077700002</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16097,7 +16397,7 @@
         <v>540.4190077700002</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16130,7 +16430,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16163,7 +16463,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16196,7 +16496,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16229,7 +16529,7 @@
         <v>540.4041077700002</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16262,7 +16562,7 @@
         <v>542.6849077700002</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16295,7 +16595,7 @@
         <v>515.7639077700002</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16328,7 +16628,7 @@
         <v>515.7639077700002</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16592,7 +16892,7 @@
         <v>551.3803077700002</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16625,7 +16925,7 @@
         <v>549.0879077700001</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16658,7 +16958,7 @@
         <v>522.5026077700002</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16691,7 +16991,7 @@
         <v>522.3026077700001</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16724,7 +17024,7 @@
         <v>632.1084558000001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16757,7 +17057,7 @@
         <v>625.9929558000001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16790,7 +17090,7 @@
         <v>483.6644558000002</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16823,7 +17123,7 @@
         <v>484.6469558000002</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16856,7 +17156,7 @@
         <v>484.4479558000002</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16889,7 +17189,7 @@
         <v>484.4479558000002</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16922,7 +17222,7 @@
         <v>484.4562267700002</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16955,7 +17255,7 @@
         <v>484.2767267700002</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16988,7 +17288,7 @@
         <v>484.2767267700002</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17021,7 +17321,7 @@
         <v>484.2767267700002</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17054,7 +17354,7 @@
         <v>485.3806267700002</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17087,7 +17387,7 @@
         <v>485.3806267700002</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17120,7 +17420,7 @@
         <v>491.0888267700001</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17153,7 +17453,7 @@
         <v>503.0888267700001</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17186,7 +17486,7 @@
         <v>574.8747267700002</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -19232,7 +19532,7 @@
         <v>797.7527228300004</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19265,7 +19565,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19298,7 +19598,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19331,7 +19631,7 @@
         <v>540.6151228300004</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19463,7 +19763,7 @@
         <v>538.1294228300003</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19529,7 +19829,7 @@
         <v>555.8985228300003</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19562,7 +19862,7 @@
         <v>572.1587228300003</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19595,7 +19895,7 @@
         <v>561.0694228300003</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19628,7 +19928,7 @@
         <v>612.8206228300004</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19661,7 +19961,7 @@
         <v>479.5815228300004</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19694,7 +19994,7 @@
         <v>479.5704228300004</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19727,7 +20027,7 @@
         <v>480.5239228300004</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19760,7 +20060,7 @@
         <v>481.0653228300004</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19793,7 +20093,7 @@
         <v>480.6091228300004</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19859,7 +20159,7 @@
         <v>471.3873228300004</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19892,7 +20192,7 @@
         <v>471.3873228300004</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19925,7 +20225,7 @@
         <v>480.1907228300004</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19958,7 +20258,7 @@
         <v>475.6666228300004</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19991,7 +20291,7 @@
         <v>475.6666228300004</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20024,7 +20324,7 @@
         <v>471.0040228300005</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20057,7 +20357,7 @@
         <v>438.4732228300005</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20090,7 +20390,7 @@
         <v>343.2820228300005</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20123,7 +20423,7 @@
         <v>342.9758228300005</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20156,7 +20456,7 @@
         <v>343.5042228300005</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20189,7 +20489,7 @@
         <v>344.6592228300004</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20222,7 +20522,7 @@
         <v>334.3758228300004</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20288,7 +20588,7 @@
         <v>263.8403228300004</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20321,7 +20621,7 @@
         <v>266.8403228300004</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20354,7 +20654,7 @@
         <v>287.6665228300004</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20387,7 +20687,7 @@
         <v>210.4657998900004</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20420,7 +20720,7 @@
         <v>341.8857998900004</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20453,7 +20753,7 @@
         <v>337.9359998900004</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20486,7 +20786,7 @@
         <v>326.9746998900004</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -23753,17 +24053,11 @@
         <v>63.37180128000039</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>251000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23796,11 +24090,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23829,17 +24119,11 @@
         <v>49.79710128000039</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>251200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23868,17 +24152,11 @@
         <v>52.50950128000039</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>251500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23911,11 +24189,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23948,11 +24222,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23985,11 +24255,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24022,11 +24288,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24059,11 +24321,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24096,11 +24354,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24133,11 +24387,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24170,11 +24420,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24207,11 +24453,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24244,11 +24486,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24281,11 +24519,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24318,11 +24552,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24355,11 +24585,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24392,11 +24618,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24429,11 +24651,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24466,11 +24684,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24503,11 +24717,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24540,11 +24750,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24577,11 +24783,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24614,11 +24816,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24651,11 +24849,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24688,11 +24882,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24725,11 +24915,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24762,11 +24948,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24799,11 +24981,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24836,11 +25014,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24873,11 +25047,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24910,11 +25080,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24947,11 +25113,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24984,11 +25146,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25021,11 +25179,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25058,17 +25212,13 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
       <c r="M709" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>